--- a/No2FileTool/resultTemp/temp.xlsx
+++ b/No2FileTool/resultTemp/temp.xlsx
@@ -1678,11 +1678,11 @@
       </c>
       <c r="C5" s="72" t="n"/>
       <c r="D5" s="72" t="n">
-        <v>4354</v>
+        <v>695</v>
       </c>
       <c r="E5" s="77" t="n"/>
       <c r="F5" s="72" t="n">
-        <v>572</v>
+        <v>3508</v>
       </c>
       <c r="G5" s="72" t="n"/>
       <c r="H5" s="72" t="n"/>
@@ -1704,11 +1704,11 @@
       </c>
       <c r="C6" s="72" t="n"/>
       <c r="D6" s="72" t="n">
-        <v>2495</v>
+        <v>862</v>
       </c>
       <c r="E6" s="77" t="n"/>
       <c r="F6" s="72" t="n">
-        <v>763</v>
+        <v>1147</v>
       </c>
       <c r="G6" s="72" t="n"/>
       <c r="H6" s="72" t="n"/>
@@ -1730,11 +1730,11 @@
       </c>
       <c r="C7" s="72" t="n"/>
       <c r="D7" s="72" t="n">
-        <v>4133</v>
+        <v>745</v>
       </c>
       <c r="E7" s="77" t="n"/>
       <c r="F7" s="72" t="n">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="G7" s="72" t="n"/>
       <c r="H7" s="72" t="n"/>
@@ -1756,11 +1756,11 @@
       </c>
       <c r="C8" s="72" t="n"/>
       <c r="D8" s="72" t="n">
-        <v>2212</v>
+        <v>1072</v>
       </c>
       <c r="E8" s="77" t="n"/>
       <c r="F8" s="72" t="n">
-        <v>83</v>
+        <v>1377</v>
       </c>
       <c r="G8" s="72" t="n"/>
       <c r="H8" s="72" t="n"/>
@@ -1782,11 +1782,11 @@
       </c>
       <c r="C9" s="72" t="n"/>
       <c r="D9" s="72" t="n">
-        <v>391</v>
+        <v>227</v>
       </c>
       <c r="E9" s="77" t="n"/>
       <c r="F9" s="72" t="n">
-        <v>1128</v>
+        <v>0</v>
       </c>
       <c r="G9" s="72" t="n"/>
       <c r="H9" s="72" t="n"/>
@@ -1808,11 +1808,11 @@
       </c>
       <c r="C10" s="72" t="n"/>
       <c r="D10" s="72" t="n">
-        <v>4977</v>
+        <v>2507</v>
       </c>
       <c r="E10" s="77" t="n"/>
       <c r="F10" s="72" t="n">
-        <v>560</v>
+        <v>2918</v>
       </c>
       <c r="G10" s="72" t="n"/>
       <c r="H10" s="72" t="n"/>
@@ -1834,11 +1834,11 @@
       </c>
       <c r="C11" s="72" t="n"/>
       <c r="D11" s="72" t="n">
-        <v>2224</v>
+        <v>1542</v>
       </c>
       <c r="E11" s="77" t="n"/>
       <c r="F11" s="72" t="n">
-        <v>1042</v>
+        <v>457</v>
       </c>
       <c r="G11" s="72" t="n"/>
       <c r="H11" s="72" t="n"/>
@@ -1860,11 +1860,11 @@
       </c>
       <c r="C12" s="72" t="n"/>
       <c r="D12" s="72" t="n">
-        <v>2820</v>
+        <v>1502</v>
       </c>
       <c r="E12" s="77" t="n"/>
       <c r="F12" s="72" t="n">
-        <v>289</v>
+        <v>2370</v>
       </c>
       <c r="G12" s="72" t="n"/>
       <c r="H12" s="72" t="n"/>
@@ -1886,11 +1886,11 @@
       </c>
       <c r="C13" s="72" t="n"/>
       <c r="D13" s="72" t="n">
-        <v>1626</v>
+        <v>670</v>
       </c>
       <c r="E13" s="77" t="n"/>
       <c r="F13" s="72" t="n">
-        <v>2148</v>
+        <v>1492</v>
       </c>
       <c r="G13" s="72" t="n"/>
       <c r="H13" s="72" t="n"/>
@@ -1912,11 +1912,11 @@
       </c>
       <c r="C14" s="72" t="n"/>
       <c r="D14" s="72" t="n">
-        <v>2050</v>
+        <v>584</v>
       </c>
       <c r="E14" s="77" t="n"/>
       <c r="F14" s="72" t="n">
-        <v>482</v>
+        <v>1210</v>
       </c>
       <c r="G14" s="72" t="n"/>
       <c r="H14" s="72" t="n"/>
@@ -1938,11 +1938,11 @@
       </c>
       <c r="C15" s="72" t="n"/>
       <c r="D15" s="72" t="n">
-        <v>2804</v>
+        <v>966</v>
       </c>
       <c r="E15" s="77" t="n"/>
       <c r="F15" s="72" t="n">
-        <v>437</v>
+        <v>2233</v>
       </c>
       <c r="G15" s="72" t="n"/>
       <c r="H15" s="72" t="n"/>
@@ -1964,11 +1964,11 @@
       </c>
       <c r="C16" s="72" t="n"/>
       <c r="D16" s="72" t="n">
-        <v>2334</v>
+        <v>1589</v>
       </c>
       <c r="E16" s="77" t="n"/>
       <c r="F16" s="72" t="n">
-        <v>217</v>
+        <v>1410</v>
       </c>
       <c r="G16" s="72" t="n"/>
       <c r="H16" s="72" t="n"/>
@@ -1990,11 +1990,11 @@
       </c>
       <c r="C17" s="72" t="n"/>
       <c r="D17" s="72" t="n">
-        <v>3774</v>
+        <v>1283</v>
       </c>
       <c r="E17" s="77" t="n"/>
       <c r="F17" s="72" t="n">
-        <v>1183</v>
+        <v>984</v>
       </c>
       <c r="G17" s="72" t="n"/>
       <c r="H17" s="72" t="n"/>
@@ -2016,11 +2016,11 @@
       </c>
       <c r="C18" s="72" t="n"/>
       <c r="D18" s="72" t="n">
-        <v>578</v>
+        <v>295</v>
       </c>
       <c r="E18" s="77" t="n"/>
       <c r="F18" s="72" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G18" s="72" t="n"/>
       <c r="H18" s="72" t="n"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="C19" s="75" t="n"/>
       <c r="D19" s="75" t="n">
-        <v>36772</v>
+        <v>14539</v>
       </c>
       <c r="E19" s="78" t="n"/>
       <c r="F19" s="75" t="n">
-        <v>8997</v>
+        <v>21993</v>
       </c>
       <c r="G19" s="75">
         <f>SUBTOTAL(9,G5:G18)</f>
@@ -2107,7 +2107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -2241,64 +2241,52 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="6" s="59">
       <c r="A6" t="inlineStr">
         <is>
+          <t>城北区副总朱广华</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="14.4" r="7" s="59">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>城北区6117王正</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>224</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="14.4" r="7" s="59">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>城北区滞留</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="n"/>
-      <c r="C7" s="8" t="n"/>
-      <c r="D7" s="41" t="n"/>
-      <c r="E7" s="8" t="n"/>
-      <c r="F7" s="8" t="n"/>
-      <c r="G7" s="8" t="n"/>
-      <c r="H7" s="24" t="n"/>
-      <c r="I7" s="27" t="n"/>
-      <c r="J7" s="28" t="n"/>
-      <c r="K7" s="29" t="n"/>
+      <c r="C7" t="n">
+        <v>48</v>
+      </c>
+      <c r="E7" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="14.4" r="8" s="59">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>市场部副总余为贵</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="n"/>
-      <c r="C8" s="8" t="n"/>
-      <c r="D8" s="41" t="n"/>
-      <c r="E8" s="8" t="n"/>
-      <c r="F8" s="8" t="n"/>
-      <c r="G8" s="8" t="n"/>
-      <c r="H8" s="24" t="n"/>
-      <c r="I8" s="27" t="n"/>
-      <c r="J8" s="28" t="n"/>
-      <c r="K8" s="29" t="n"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>城北区6122茆华兴</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>36</v>
+      </c>
+      <c r="E8" t="n">
+        <v>378</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="14.4" r="9" s="59">
       <c r="A9" s="8" t="inlineStr">
         <is>
-          <t>城北区6118贾素梅</t>
+          <t>城北区滞留</t>
         </is>
       </c>
       <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n">
-        <v>415</v>
-      </c>
+      <c r="C9" s="8" t="n"/>
       <c r="D9" s="41" t="n"/>
-      <c r="E9" s="8" t="n">
-        <v>12</v>
-      </c>
+      <c r="E9" s="8" t="n"/>
       <c r="F9" s="8" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="H9" s="24" t="n"/>
@@ -2309,17 +2297,13 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="10" s="59">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>城北区CH1茆华兴</t>
+          <t>市场部副总余为贵</t>
         </is>
       </c>
       <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n">
-        <v>472</v>
-      </c>
+      <c r="C10" s="8" t="n"/>
       <c r="D10" s="41" t="n"/>
-      <c r="E10" s="8" t="n">
-        <v>50</v>
-      </c>
+      <c r="E10" s="8" t="n"/>
       <c r="F10" s="8" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="H10" s="24" t="n"/>
@@ -2330,16 +2314,16 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="11" s="59">
       <c r="A11" s="8" t="inlineStr">
         <is>
-          <t>城北区6113蒋盐锋</t>
+          <t>城北区6118贾素梅</t>
         </is>
       </c>
       <c r="B11" s="8" t="n"/>
       <c r="C11" s="8" t="n">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="D11" s="41" t="n"/>
       <c r="E11" s="8" t="n">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="F11" s="8" t="n"/>
       <c r="G11" s="8" t="n"/>
@@ -2351,17 +2335,13 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="12" s="59">
       <c r="A12" s="8" t="inlineStr">
         <is>
-          <t>城北区6101青墩袁晔</t>
+          <t>城北区CH1茆华兴</t>
         </is>
       </c>
       <c r="B12" s="8" t="n"/>
-      <c r="C12" s="8" t="n">
-        <v>351</v>
-      </c>
+      <c r="C12" s="8" t="n"/>
       <c r="D12" s="41" t="n"/>
-      <c r="E12" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
       <c r="G12" s="8" t="n"/>
       <c r="H12" s="24" t="n"/>
@@ -2372,16 +2352,16 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="13" s="59">
       <c r="A13" s="8" t="inlineStr">
         <is>
-          <t>城北区6129龙桥苏伟伟</t>
+          <t>城北区6113蒋盐锋</t>
         </is>
       </c>
       <c r="B13" s="8" t="n"/>
       <c r="C13" s="8" t="n">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D13" s="41" t="n"/>
       <c r="E13" s="8" t="n">
-        <v>41</v>
+        <v>415</v>
       </c>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
@@ -2393,13 +2373,17 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="14" s="59">
       <c r="A14" s="8" t="inlineStr">
         <is>
-          <t>机动驾驶员王正117</t>
+          <t>城北区6101青墩袁晔</t>
         </is>
       </c>
       <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
+      <c r="C14" s="8" t="n">
+        <v>201</v>
+      </c>
       <c r="D14" s="41" t="n"/>
-      <c r="E14" s="8" t="n"/>
+      <c r="E14" s="8" t="n">
+        <v>170</v>
+      </c>
       <c r="F14" s="8" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="H14" s="24" t="n"/>
@@ -2410,16 +2394,16 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="15" s="59">
       <c r="A15" s="8" t="inlineStr">
         <is>
-          <t>城北区6126胡必红</t>
+          <t>城北区6129龙桥苏伟伟</t>
         </is>
       </c>
       <c r="B15" s="8" t="n"/>
       <c r="C15" s="8" t="n">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="D15" s="41" t="n"/>
       <c r="E15" s="8" t="n">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="F15" s="8" t="n"/>
       <c r="G15" s="8" t="n"/>
@@ -2431,17 +2415,13 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="16" s="59">
       <c r="A16" s="8" t="inlineStr">
         <is>
-          <t>城北区6130头灶贾正群</t>
+          <t>机动驾驶员王正117</t>
         </is>
       </c>
       <c r="B16" s="8" t="n"/>
-      <c r="C16" s="8" t="n">
-        <v>155</v>
-      </c>
+      <c r="C16" s="8" t="n"/>
       <c r="D16" s="41" t="n"/>
-      <c r="E16" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E16" s="8" t="n"/>
       <c r="F16" s="8" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="H16" s="24" t="n"/>
@@ -2452,16 +2432,16 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="17" s="59">
       <c r="A17" s="8" t="inlineStr">
         <is>
-          <t>城北区6125杨明</t>
+          <t>城北区6126胡必红</t>
         </is>
       </c>
       <c r="B17" s="8" t="n"/>
       <c r="C17" s="8" t="n">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="D17" s="41" t="n"/>
       <c r="E17" s="8" t="n">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="F17" s="8" t="n"/>
       <c r="G17" s="8" t="n"/>
@@ -2473,13 +2453,17 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="18" s="59">
       <c r="A18" s="8" t="inlineStr">
         <is>
-          <t>城北驾驶员卞启斌115</t>
+          <t>城北区6130头灶贾正群</t>
         </is>
       </c>
       <c r="B18" s="8" t="n"/>
-      <c r="C18" s="8" t="n"/>
+      <c r="C18" s="8" t="n">
+        <v>85</v>
+      </c>
       <c r="D18" s="41" t="n"/>
-      <c r="E18" s="8" t="n"/>
+      <c r="E18" s="8" t="n">
+        <v>82</v>
+      </c>
       <c r="F18" s="8" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="H18" s="24" t="n"/>
@@ -2490,16 +2474,16 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="19" s="59">
       <c r="A19" s="8" t="inlineStr">
         <is>
-          <t>城北区6128单超</t>
+          <t>城北区6125杨明</t>
         </is>
       </c>
       <c r="B19" s="8" t="n"/>
       <c r="C19" s="8" t="n">
-        <v>252</v>
+        <v>98</v>
       </c>
       <c r="D19" s="41" t="n"/>
       <c r="E19" s="8" t="n">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F19" s="8" t="n"/>
       <c r="G19" s="8" t="n"/>
@@ -2511,17 +2495,13 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="20" s="59">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>城北7101日凯驿站吴国</t>
+          <t>城北驾驶员卞启斌115</t>
         </is>
       </c>
       <c r="B20" s="8" t="n"/>
-      <c r="C20" s="8" t="n">
-        <v>48</v>
-      </c>
+      <c r="C20" s="8" t="n"/>
       <c r="D20" s="41" t="n"/>
-      <c r="E20" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E20" s="8" t="n"/>
       <c r="F20" s="8" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="H20" s="24" t="n"/>
@@ -2532,16 +2512,16 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="21" s="59">
       <c r="A21" s="8" t="inlineStr">
         <is>
-          <t>城北驾驶员陈渝水</t>
+          <t>城北区6128单超</t>
         </is>
       </c>
       <c r="B21" s="8" t="n"/>
       <c r="C21" s="8" t="n">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="D21" s="41" t="n"/>
       <c r="E21" s="8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="8" t="n"/>
       <c r="G21" s="8" t="n"/>
@@ -2553,16 +2533,16 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="22" s="59">
       <c r="A22" s="8" t="inlineStr">
         <is>
-          <t>城北区6119蒋守国</t>
+          <t>城北7101日凯驿站吴国</t>
         </is>
       </c>
       <c r="B22" s="8" t="n"/>
       <c r="C22" s="8" t="n">
-        <v>195</v>
+        <v>7</v>
       </c>
       <c r="D22" s="41" t="n"/>
       <c r="E22" s="8" t="n">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="F22" s="8" t="n"/>
       <c r="G22" s="8" t="n"/>
@@ -2574,12 +2554,12 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="23" s="59">
       <c r="A23" s="8" t="inlineStr">
         <is>
-          <t>城北区驾驶员陈汉江</t>
+          <t>城北驾驶员陈渝水</t>
         </is>
       </c>
       <c r="B23" s="8" t="n"/>
       <c r="C23" s="8" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D23" s="41" t="n"/>
       <c r="E23" s="8" t="n">
@@ -2595,16 +2575,16 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="24" s="59">
       <c r="A24" s="8" t="inlineStr">
         <is>
-          <t>城北区驾驶员李祥</t>
+          <t>城北区6119蒋守国</t>
         </is>
       </c>
       <c r="B24" s="8" t="n"/>
       <c r="C24" s="8" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D24" s="41" t="n"/>
       <c r="E24" s="8" t="n">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="F24" s="8" t="n"/>
       <c r="G24" s="8" t="n"/>
@@ -2616,13 +2596,17 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="25" s="59">
       <c r="A25" s="8" t="inlineStr">
         <is>
-          <t>城北区115水岸华庭</t>
+          <t>城北区驾驶员陈汉江</t>
         </is>
       </c>
       <c r="B25" s="8" t="n"/>
-      <c r="C25" s="8" t="n"/>
+      <c r="C25" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="D25" s="41" t="n"/>
-      <c r="E25" s="8" t="n"/>
+      <c r="E25" s="8" t="n">
+        <v>24</v>
+      </c>
       <c r="F25" s="8" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="H25" s="24" t="n"/>
@@ -2633,13 +2617,17 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="26" s="59">
       <c r="A26" s="8" t="inlineStr">
         <is>
-          <t>城北区5113蒋盐锋</t>
+          <t>城北区驾驶员李祥</t>
         </is>
       </c>
       <c r="B26" s="8" t="n"/>
-      <c r="C26" s="8" t="n"/>
+      <c r="C26" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="D26" s="41" t="n"/>
-      <c r="E26" s="8" t="n"/>
+      <c r="E26" s="8" t="n">
+        <v>96</v>
+      </c>
       <c r="F26" s="8" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="H26" s="24" t="n"/>
@@ -2650,7 +2638,7 @@
     <row customHeight="1" ht="17.6" r="27" s="85">
       <c r="A27" s="8" t="inlineStr">
         <is>
-          <t>城北区发往无下文</t>
+          <t>城北区115水岸华庭</t>
         </is>
       </c>
       <c r="B27" s="8" t="n"/>
@@ -2665,44 +2653,78 @@
       <c r="K27" s="29" t="n"/>
     </row>
     <row r="28" s="85">
-      <c r="A28" s="12" t="inlineStr">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>城北区5113蒋盐锋</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="n"/>
+      <c r="C28" s="8" t="n"/>
+      <c r="D28" s="41" t="n"/>
+      <c r="E28" s="8" t="n"/>
+      <c r="F28" s="8" t="n"/>
+      <c r="G28" s="8" t="n"/>
+      <c r="H28" s="24" t="n"/>
+      <c r="I28" s="27" t="n"/>
+      <c r="J28" s="28" t="n"/>
+      <c r="K28" s="29" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>城北区发往无下文</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="n"/>
+      <c r="C29" s="8" t="n"/>
+      <c r="D29" s="41" t="n"/>
+      <c r="E29" s="8" t="n"/>
+      <c r="F29" s="8" t="n"/>
+      <c r="G29" s="8" t="n"/>
+      <c r="H29" s="24" t="n"/>
+      <c r="I29" s="27" t="n"/>
+      <c r="J29" s="28" t="n"/>
+      <c r="K29" s="29" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="12" t="inlineStr">
         <is>
           <t>大区合计</t>
         </is>
       </c>
-      <c r="B28" s="12" t="n"/>
-      <c r="C28" s="12" t="n">
-        <v>2804</v>
-      </c>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n">
-        <v>437</v>
-      </c>
-      <c r="F28" s="12" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="12" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="30" t="n"/>
-      <c r="K28" s="31" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="14" t="inlineStr">
+      <c r="B30" s="12" t="n"/>
+      <c r="C30" s="12" t="n">
+        <v>966</v>
+      </c>
+      <c r="D30" s="13" t="n"/>
+      <c r="E30" s="12" t="n">
+        <v>2233</v>
+      </c>
+      <c r="F30" s="12" t="n"/>
+      <c r="G30" s="12" t="n"/>
+      <c r="H30" s="12" t="n"/>
+      <c r="I30" s="12" t="n"/>
+      <c r="J30" s="30" t="n"/>
+      <c r="K30" s="31" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="14" t="inlineStr">
         <is>
           <t>制表人：何红</t>
         </is>
       </c>
-      <c r="B29" s="15" t="inlineStr">
+      <c r="B31" s="15" t="inlineStr">
         <is>
           <t>电话：18921880822</t>
         </is>
       </c>
-      <c r="C29" s="15" t="n"/>
-      <c r="D29" s="15" t="n"/>
-      <c r="E29" s="15" t="n"/>
-      <c r="F29" s="15" t="n"/>
-      <c r="G29" s="15" t="n"/>
-      <c r="H29" s="15" t="n"/>
-      <c r="I29" s="15" t="n"/>
+      <c r="C31" s="15" t="n"/>
+      <c r="D31" s="15" t="n"/>
+      <c r="E31" s="15" t="n"/>
+      <c r="F31" s="15" t="n"/>
+      <c r="G31" s="15" t="n"/>
+      <c r="H31" s="15" t="n"/>
+      <c r="I31" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2893,11 +2915,11 @@
       </c>
       <c r="B7" s="8" t="n"/>
       <c r="C7" s="8" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="D7" s="41" t="n"/>
       <c r="E7" s="8" t="n">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="F7" s="8" t="n"/>
       <c r="G7" s="8" t="n"/>
@@ -2914,11 +2936,11 @@
       </c>
       <c r="B8" s="8" t="n"/>
       <c r="C8" s="8" t="n">
-        <v>458</v>
+        <v>77</v>
       </c>
       <c r="D8" s="41" t="n"/>
       <c r="E8" s="8" t="n">
-        <v>2</v>
+        <v>350</v>
       </c>
       <c r="F8" s="8" t="n"/>
       <c r="G8" s="8" t="n"/>
@@ -2936,11 +2958,11 @@
       </c>
       <c r="B9" s="8" t="n"/>
       <c r="C9" s="8" t="n">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="D9" s="41" t="n"/>
       <c r="E9" s="8" t="n">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="F9" s="8" t="n"/>
       <c r="G9" s="8" t="n"/>
@@ -2958,11 +2980,11 @@
       </c>
       <c r="B10" s="8" t="n"/>
       <c r="C10" s="8" t="n">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="D10" s="41" t="n"/>
       <c r="E10" s="8" t="n">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="F10" s="8" t="n"/>
       <c r="G10" s="8" t="n"/>
@@ -2980,11 +3002,11 @@
       </c>
       <c r="B11" s="8" t="n"/>
       <c r="C11" s="8" t="n">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="D11" s="41" t="n"/>
       <c r="E11" s="8" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F11" s="8" t="n"/>
       <c r="G11" s="8" t="n"/>
@@ -3002,11 +3024,11 @@
       </c>
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n">
-        <v>836</v>
+        <v>102</v>
       </c>
       <c r="D12" s="41" t="n"/>
       <c r="E12" s="8" t="n">
-        <v>2</v>
+        <v>456</v>
       </c>
       <c r="F12" s="8" t="n"/>
       <c r="G12" s="8" t="n"/>
@@ -3024,11 +3046,11 @@
       </c>
       <c r="B13" s="8" t="n"/>
       <c r="C13" s="8" t="n">
-        <v>529</v>
+        <v>107</v>
       </c>
       <c r="D13" s="41" t="n"/>
       <c r="E13" s="8" t="n">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
@@ -3046,11 +3068,11 @@
       </c>
       <c r="B14" s="8" t="n"/>
       <c r="C14" s="8" t="n">
-        <v>581</v>
+        <v>54</v>
       </c>
       <c r="D14" s="41" t="n"/>
       <c r="E14" s="8" t="n">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="F14" s="8" t="n"/>
       <c r="G14" s="8" t="n"/>
@@ -3068,11 +3090,11 @@
       </c>
       <c r="B15" s="8" t="n"/>
       <c r="C15" s="8" t="n">
-        <v>395</v>
+        <v>36</v>
       </c>
       <c r="D15" s="41" t="n"/>
       <c r="E15" s="8" t="n">
-        <v>1</v>
+        <v>410</v>
       </c>
       <c r="F15" s="8" t="n"/>
       <c r="G15" s="8" t="n"/>
@@ -3090,11 +3112,11 @@
       </c>
       <c r="B16" s="8" t="n"/>
       <c r="C16" s="8" t="n">
-        <v>515</v>
+        <v>51</v>
       </c>
       <c r="D16" s="41" t="n"/>
       <c r="E16" s="8" t="n">
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="F16" s="8" t="n"/>
       <c r="G16" s="8" t="n"/>
@@ -3200,11 +3222,11 @@
       </c>
       <c r="B22" s="12" t="n"/>
       <c r="C22" s="12" t="n">
-        <v>4133</v>
+        <v>745</v>
       </c>
       <c r="D22" s="13" t="n"/>
       <c r="E22" s="12" t="n">
-        <v>90</v>
+        <v>2880</v>
       </c>
       <c r="F22" s="12" t="n"/>
       <c r="G22" s="12" t="n"/>
@@ -3404,11 +3426,11 @@
       </c>
       <c r="B6" s="8" t="n"/>
       <c r="C6" s="8" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D6" s="41" t="n"/>
       <c r="E6" s="8" t="n">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="F6" s="8" t="n"/>
       <c r="G6" s="8" t="n"/>
@@ -3425,11 +3447,11 @@
       </c>
       <c r="B7" s="8" t="n"/>
       <c r="C7" s="8" t="n">
-        <v>334</v>
+        <v>72</v>
       </c>
       <c r="D7" s="41" t="n"/>
       <c r="E7" s="8" t="n">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="F7" s="8" t="n"/>
       <c r="G7" s="8" t="n"/>
@@ -3446,11 +3468,11 @@
       </c>
       <c r="B8" s="8" t="n"/>
       <c r="C8" s="8" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D8" s="41" t="n"/>
       <c r="E8" s="8" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="F8" s="8" t="n"/>
       <c r="G8" s="8" t="n"/>
@@ -3467,7 +3489,7 @@
       </c>
       <c r="B9" s="8" t="n"/>
       <c r="C9" s="8" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D9" s="41" t="n"/>
       <c r="E9" s="8" t="n">
@@ -3488,11 +3510,11 @@
       </c>
       <c r="B10" s="8" t="n"/>
       <c r="C10" s="8" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D10" s="41" t="n"/>
       <c r="E10" s="8" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="F10" s="8" t="n"/>
       <c r="G10" s="8" t="n"/>
@@ -3509,7 +3531,7 @@
       </c>
       <c r="B11" s="8" t="n"/>
       <c r="C11" s="8" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D11" s="41" t="n"/>
       <c r="E11" s="8" t="n">
@@ -3530,11 +3552,11 @@
       </c>
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D12" s="41" t="n"/>
       <c r="E12" s="8" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="F12" s="8" t="n"/>
       <c r="G12" s="8" t="n"/>
@@ -3550,9 +3572,13 @@
         </is>
       </c>
       <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
+      <c r="C13" s="8" t="n">
+        <v>6</v>
+      </c>
       <c r="D13" s="41" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="E13" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="H13" s="24" t="n"/>
@@ -3693,11 +3719,11 @@
       </c>
       <c r="B21" s="12" t="n"/>
       <c r="C21" s="12" t="n">
-        <v>391</v>
+        <v>227</v>
       </c>
       <c r="D21" s="13" t="n"/>
       <c r="E21" s="12" t="n">
-        <v>1128</v>
+        <v>0</v>
       </c>
       <c r="F21" s="12" t="n"/>
       <c r="G21" s="12" t="n"/>
@@ -3892,14 +3918,14 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="6" s="59">
       <c r="A6" t="inlineStr">
         <is>
-          <t>万达区监察刘德勇</t>
+          <t>万达区6302黄利钢</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="E6" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="14.4" r="7" s="59">
@@ -3910,11 +3936,11 @@
       </c>
       <c r="B7" s="8" t="n"/>
       <c r="C7" s="8" t="n">
-        <v>203</v>
+        <v>50</v>
       </c>
       <c r="D7" s="41" t="n"/>
       <c r="E7" s="8" t="n">
-        <v>2</v>
+        <v>217</v>
       </c>
       <c r="F7" s="8" t="n"/>
       <c r="G7" s="8" t="n"/>
@@ -3931,11 +3957,11 @@
       </c>
       <c r="B8" s="8" t="n"/>
       <c r="C8" s="8" t="n">
-        <v>294</v>
+        <v>68</v>
       </c>
       <c r="D8" s="41" t="n"/>
       <c r="E8" s="8" t="n">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="F8" s="8" t="n"/>
       <c r="G8" s="8" t="n"/>
@@ -3952,11 +3978,11 @@
       </c>
       <c r="B9" s="8" t="n"/>
       <c r="C9" s="8" t="n">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="D9" s="41" t="n"/>
       <c r="E9" s="8" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F9" s="8" t="n"/>
       <c r="G9" s="8" t="n"/>
@@ -3973,11 +3999,11 @@
       </c>
       <c r="B10" s="8" t="n"/>
       <c r="C10" s="8" t="n">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="D10" s="41" t="n"/>
       <c r="E10" s="8" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F10" s="8" t="n"/>
       <c r="G10" s="8" t="n"/>
@@ -3994,11 +4020,11 @@
       </c>
       <c r="B11" s="8" t="n"/>
       <c r="C11" s="8" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D11" s="41" t="n"/>
       <c r="E11" s="8" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F11" s="8" t="n"/>
       <c r="G11" s="8" t="n"/>
@@ -4015,11 +4041,11 @@
       </c>
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="D12" s="41" t="n"/>
       <c r="E12" s="8" t="n">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="F12" s="8" t="n"/>
       <c r="G12" s="8" t="n"/>
@@ -4036,11 +4062,11 @@
       </c>
       <c r="B13" s="8" t="n"/>
       <c r="C13" s="8" t="n">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="D13" s="41" t="n"/>
       <c r="E13" s="8" t="n">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
@@ -4057,11 +4083,11 @@
       </c>
       <c r="B14" s="8" t="n"/>
       <c r="C14" s="8" t="n">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="D14" s="41" t="n"/>
       <c r="E14" s="8" t="n">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="F14" s="8" t="n"/>
       <c r="G14" s="8" t="n"/>
@@ -4077,13 +4103,9 @@
         </is>
       </c>
       <c r="B15" s="8" t="n"/>
-      <c r="C15" s="8" t="n">
-        <v>216</v>
-      </c>
+      <c r="C15" s="8" t="n"/>
       <c r="D15" s="41" t="n"/>
-      <c r="E15" s="8" t="n">
-        <v>26</v>
-      </c>
+      <c r="E15" s="8" t="n"/>
       <c r="F15" s="8" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="H15" s="24" t="n"/>
@@ -4099,11 +4121,11 @@
       </c>
       <c r="B16" s="8" t="n"/>
       <c r="C16" s="8" t="n">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="D16" s="41" t="n"/>
       <c r="E16" s="8" t="n">
-        <v>208</v>
+        <v>4</v>
       </c>
       <c r="F16" s="8" t="n"/>
       <c r="G16" s="8" t="n"/>
@@ -4119,13 +4141,9 @@
         </is>
       </c>
       <c r="B17" s="8" t="n"/>
-      <c r="C17" s="8" t="n">
-        <v>24</v>
-      </c>
+      <c r="C17" s="8" t="n"/>
       <c r="D17" s="41" t="n"/>
-      <c r="E17" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E17" s="8" t="n"/>
       <c r="F17" s="8" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="H17" s="24" t="n"/>
@@ -4141,11 +4159,11 @@
       </c>
       <c r="B18" s="8" t="n"/>
       <c r="C18" s="8" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D18" s="41" t="n"/>
       <c r="E18" s="8" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F18" s="8" t="n"/>
       <c r="G18" s="8" t="n"/>
@@ -4162,11 +4180,11 @@
       </c>
       <c r="B19" s="8" t="n"/>
       <c r="C19" s="8" t="n">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="D19" s="41" t="n"/>
       <c r="E19" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="8" t="n"/>
       <c r="G19" s="8" t="n"/>
@@ -4183,11 +4201,11 @@
       </c>
       <c r="B20" s="8" t="n"/>
       <c r="C20" s="8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D20" s="41" t="n"/>
       <c r="E20" s="8" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F20" s="8" t="n"/>
       <c r="G20" s="8" t="n"/>
@@ -4204,11 +4222,11 @@
       </c>
       <c r="B21" s="8" t="n"/>
       <c r="C21" s="8" t="n">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="D21" s="41" t="n"/>
       <c r="E21" s="8" t="n">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="F21" s="8" t="n"/>
       <c r="G21" s="8" t="n"/>
@@ -4225,11 +4243,11 @@
       </c>
       <c r="B22" s="8" t="n"/>
       <c r="C22" s="8" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D22" s="41" t="n"/>
       <c r="E22" s="8" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F22" s="8" t="n"/>
       <c r="G22" s="8" t="n"/>
@@ -4246,11 +4264,11 @@
       </c>
       <c r="B23" s="8" t="n"/>
       <c r="C23" s="8" t="n">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="D23" s="41" t="n"/>
       <c r="E23" s="8" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="F23" s="8" t="n"/>
       <c r="G23" s="8" t="n"/>
@@ -4267,11 +4285,11 @@
       </c>
       <c r="B24" s="8" t="n"/>
       <c r="C24" s="8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" s="41" t="n"/>
       <c r="E24" s="8" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F24" s="8" t="n"/>
       <c r="G24" s="8" t="n"/>
@@ -4288,11 +4306,11 @@
       </c>
       <c r="B25" s="8" t="n"/>
       <c r="C25" s="8" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="D25" s="41" t="n"/>
       <c r="E25" s="8" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F25" s="8" t="n"/>
       <c r="G25" s="8" t="n"/>
@@ -4308,9 +4326,13 @@
         </is>
       </c>
       <c r="B26" s="8" t="n"/>
-      <c r="C26" s="8" t="n"/>
+      <c r="C26" s="8" t="n">
+        <v>5</v>
+      </c>
       <c r="D26" s="41" t="n"/>
-      <c r="E26" s="8" t="n"/>
+      <c r="E26" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="F26" s="8" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="H26" s="24" t="n"/>
@@ -4479,11 +4501,11 @@
       </c>
       <c r="B36" s="12" t="n"/>
       <c r="C36" s="12" t="n">
-        <v>2495</v>
+        <v>862</v>
       </c>
       <c r="D36" s="13" t="n"/>
       <c r="E36" s="12" t="n">
-        <v>763</v>
+        <v>1147</v>
       </c>
       <c r="F36" s="12" t="n"/>
       <c r="G36" s="12" t="n"/>
@@ -4679,11 +4701,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>招商区机动赵军</t>
+          <t>招商区6215潘龙涛</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4692,14 +4714,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>招商区副总监翟仁贵</t>
+          <t>招商区6205华府景城</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="E7" t="n">
         <v>3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -4726,13 +4748,9 @@
         </is>
       </c>
       <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n">
-        <v>50</v>
-      </c>
+      <c r="C9" s="8" t="n"/>
       <c r="D9" s="41" t="n"/>
-      <c r="E9" s="8" t="n">
-        <v>35</v>
-      </c>
+      <c r="E9" s="8" t="n"/>
       <c r="F9" s="8" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="H9" s="24" t="n"/>
@@ -4748,11 +4766,11 @@
       </c>
       <c r="B10" s="8" t="n"/>
       <c r="C10" s="8" t="n">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="D10" s="41" t="n"/>
       <c r="E10" s="8" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="F10" s="8" t="n"/>
       <c r="G10" s="8" t="n"/>
@@ -4770,11 +4788,11 @@
       </c>
       <c r="B11" s="8" t="n"/>
       <c r="C11" s="8" t="n">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D11" s="41" t="n"/>
       <c r="E11" s="8" t="n">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="F11" s="8" t="n"/>
       <c r="G11" s="8" t="n"/>
@@ -4792,11 +4810,11 @@
       </c>
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D12" s="41" t="n"/>
       <c r="E12" s="8" t="n">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F12" s="8" t="n"/>
       <c r="G12" s="8" t="n"/>
@@ -4814,11 +4832,11 @@
       </c>
       <c r="B13" s="8" t="n"/>
       <c r="C13" s="8" t="n">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="D13" s="41" t="n"/>
       <c r="E13" s="8" t="n">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
@@ -4836,11 +4854,11 @@
       </c>
       <c r="B14" s="8" t="n"/>
       <c r="C14" s="8" t="n">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="D14" s="41" t="n"/>
       <c r="E14" s="8" t="n">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="F14" s="8" t="n"/>
       <c r="G14" s="8" t="n"/>
@@ -4858,11 +4876,11 @@
       </c>
       <c r="B15" s="8" t="n"/>
       <c r="C15" s="8" t="n">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="D15" s="41" t="n"/>
       <c r="E15" s="8" t="n">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="F15" s="8" t="n"/>
       <c r="G15" s="8" t="n"/>
@@ -4880,11 +4898,11 @@
       </c>
       <c r="B16" s="8" t="n"/>
       <c r="C16" s="8" t="n">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D16" s="41" t="n"/>
       <c r="E16" s="8" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="F16" s="8" t="n"/>
       <c r="G16" s="8" t="n"/>
@@ -4902,11 +4920,11 @@
       </c>
       <c r="B17" s="8" t="n"/>
       <c r="C17" s="8" t="n">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D17" s="41" t="n"/>
       <c r="E17" s="8" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="F17" s="8" t="n"/>
       <c r="G17" s="8" t="n"/>
@@ -4924,11 +4942,11 @@
       </c>
       <c r="B18" s="8" t="n"/>
       <c r="C18" s="8" t="n">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D18" s="41" t="n"/>
       <c r="E18" s="8" t="n">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="F18" s="8" t="n"/>
       <c r="G18" s="8" t="n"/>
@@ -4946,11 +4964,11 @@
       </c>
       <c r="B19" s="8" t="n"/>
       <c r="C19" s="8" t="n">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="D19" s="41" t="n"/>
       <c r="E19" s="8" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F19" s="8" t="n"/>
       <c r="G19" s="8" t="n"/>
@@ -4968,11 +4986,11 @@
       </c>
       <c r="B20" s="8" t="n"/>
       <c r="C20" s="8" t="n">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="D20" s="41" t="n"/>
       <c r="E20" s="8" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="F20" s="8" t="n"/>
       <c r="G20" s="8" t="n"/>
@@ -4989,13 +5007,9 @@
         </is>
       </c>
       <c r="B21" s="8" t="n"/>
-      <c r="C21" s="8" t="n">
-        <v>62</v>
-      </c>
+      <c r="C21" s="8" t="n"/>
       <c r="D21" s="41" t="n"/>
-      <c r="E21" s="8" t="n">
-        <v>48</v>
-      </c>
+      <c r="E21" s="8" t="n"/>
       <c r="F21" s="8" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="H21" s="24" t="n"/>
@@ -5012,11 +5026,11 @@
       </c>
       <c r="B22" s="8" t="n"/>
       <c r="C22" s="8" t="n">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="D22" s="41" t="n"/>
       <c r="E22" s="8" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F22" s="8" t="n"/>
       <c r="G22" s="8" t="n"/>
@@ -5034,11 +5048,11 @@
       </c>
       <c r="B23" s="8" t="n"/>
       <c r="C23" s="8" t="n">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="D23" s="41" t="n"/>
       <c r="E23" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="8" t="n"/>
       <c r="G23" s="8" t="n"/>
@@ -5270,11 +5284,11 @@
       </c>
       <c r="B36" s="12" t="n"/>
       <c r="C36" s="12" t="n">
-        <v>2224</v>
+        <v>1542</v>
       </c>
       <c r="D36" s="13" t="n"/>
       <c r="E36" s="12" t="n">
-        <v>1042</v>
+        <v>457</v>
       </c>
       <c r="F36" s="12" t="n"/>
       <c r="G36" s="12" t="n"/>
@@ -5337,7 +5351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
@@ -5464,11 +5478,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>张娟娟</t>
+          <t>市场部驾驶员蔡进</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5477,54 +5491,46 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>史玲林</t>
+          <t>西大区朱玉祥</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>陈峰</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>退回件</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="n"/>
-      <c r="C8" s="8" t="n"/>
-      <c r="D8" s="41" t="n"/>
-      <c r="E8" s="8" t="n"/>
-      <c r="F8" s="8" t="n"/>
-      <c r="G8" s="8" t="n"/>
-      <c r="H8" s="24" t="n"/>
-      <c r="I8" s="27" t="n"/>
-      <c r="J8" s="28" t="n"/>
-      <c r="K8" s="29" t="n"/>
-    </row>
     <row r="9">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>操作部处理组杨凯</t>
-        </is>
-      </c>
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n"/>
-      <c r="D9" s="41" t="n"/>
-      <c r="E9" s="8" t="n"/>
-      <c r="F9" s="8" t="n"/>
-      <c r="G9" s="8" t="n"/>
-      <c r="H9" s="24" t="n"/>
-      <c r="I9" s="27" t="n"/>
-      <c r="J9" s="28" t="n"/>
-      <c r="K9" s="29" t="n"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>陈秀梅</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>处理组丁华丽</t>
+          <t>退回件</t>
         </is>
       </c>
       <c r="B10" s="8" t="n"/>
@@ -5541,7 +5547,7 @@
     <row r="11">
       <c r="A11" s="8" t="inlineStr">
         <is>
-          <t>韩金凤</t>
+          <t>操作部处理组杨凯</t>
         </is>
       </c>
       <c r="B11" s="8" t="n"/>
@@ -5558,7 +5564,7 @@
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
-          <t>自动化扫描/错发</t>
+          <t>处理组丁华丽</t>
         </is>
       </c>
       <c r="B12" s="8" t="n"/>
@@ -5575,7 +5581,7 @@
     <row r="13">
       <c r="A13" s="8" t="inlineStr">
         <is>
-          <t>自动化扫描</t>
+          <t>韩金凤</t>
         </is>
       </c>
       <c r="B13" s="8" t="n"/>
@@ -5592,7 +5598,7 @@
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
         <is>
-          <t>操作工金元</t>
+          <t>自动化扫描/错发</t>
         </is>
       </c>
       <c r="B14" s="8" t="n"/>
@@ -5609,7 +5615,7 @@
     <row r="15">
       <c r="A15" s="8" t="inlineStr">
         <is>
-          <t>韩金凤/错发</t>
+          <t>自动化扫描</t>
         </is>
       </c>
       <c r="B15" s="8" t="n"/>
@@ -5626,7 +5632,7 @@
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
         <is>
-          <t>陈金群</t>
+          <t>操作工金元</t>
         </is>
       </c>
       <c r="B16" s="8" t="n"/>
@@ -5643,17 +5649,13 @@
     <row r="17">
       <c r="A17" s="8" t="inlineStr">
         <is>
-          <t>时效测试</t>
+          <t>韩金凤/错发</t>
         </is>
       </c>
       <c r="B17" s="8" t="n"/>
-      <c r="C17" s="8" t="n">
-        <v>560</v>
-      </c>
+      <c r="C17" s="8" t="n"/>
       <c r="D17" s="41" t="n"/>
-      <c r="E17" s="8" t="n">
-        <v>3</v>
-      </c>
+      <c r="E17" s="8" t="n"/>
       <c r="F17" s="8" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="H17" s="24" t="n"/>
@@ -5664,17 +5666,13 @@
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
         <is>
-          <t>市场部驾驶员孙军</t>
+          <t>陈金群</t>
         </is>
       </c>
       <c r="B18" s="8" t="n"/>
-      <c r="C18" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="C18" s="8" t="n"/>
       <c r="D18" s="41" t="n"/>
-      <c r="E18" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E18" s="8" t="n"/>
       <c r="F18" s="8" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="H18" s="24" t="n"/>
@@ -5685,13 +5683,17 @@
     <row r="19">
       <c r="A19" s="8" t="inlineStr">
         <is>
-          <t>发往无下文</t>
+          <t>时效测试</t>
         </is>
       </c>
       <c r="B19" s="8" t="n"/>
-      <c r="C19" s="8" t="n"/>
+      <c r="C19" s="8" t="n">
+        <v>246</v>
+      </c>
       <c r="D19" s="41" t="n"/>
-      <c r="E19" s="8" t="n"/>
+      <c r="E19" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="F19" s="8" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="H19" s="24" t="n"/>
@@ -5702,13 +5704,17 @@
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>中大区顾启友/错发</t>
+          <t>市场部驾驶员孙军</t>
         </is>
       </c>
       <c r="B20" s="8" t="n"/>
-      <c r="C20" s="8" t="n"/>
+      <c r="C20" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="D20" s="41" t="n"/>
-      <c r="E20" s="8" t="n"/>
+      <c r="E20" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="F20" s="8" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="H20" s="24" t="n"/>
@@ -5719,7 +5725,7 @@
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
         <is>
-          <t>东大区到件/错发</t>
+          <t>发往无下文</t>
         </is>
       </c>
       <c r="B21" s="8" t="n"/>
@@ -5734,19 +5740,15 @@
       <c r="K21" s="29" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="inlineStr">
-        <is>
-          <t>市场部驾驶员徐荣荣</t>
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>中大区顾启友/错发</t>
         </is>
       </c>
       <c r="B22" s="8" t="n"/>
-      <c r="C22" s="8" t="n">
-        <v>13</v>
-      </c>
+      <c r="C22" s="8" t="n"/>
       <c r="D22" s="41" t="n"/>
-      <c r="E22" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E22" s="8" t="n"/>
       <c r="F22" s="8" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="H22" s="24" t="n"/>
@@ -5757,7 +5759,7 @@
     <row r="23">
       <c r="A23" s="8" t="inlineStr">
         <is>
-          <t>操作部惠玉粉</t>
+          <t>东大区到件/错发</t>
         </is>
       </c>
       <c r="B23" s="8" t="n"/>
@@ -5772,15 +5774,19 @@
       <c r="K23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="42" t="inlineStr">
-        <is>
-          <t>操作部阚树东</t>
+      <c r="A24" s="10" t="inlineStr">
+        <is>
+          <t>市场部驾驶员徐荣荣</t>
         </is>
       </c>
       <c r="B24" s="8" t="n"/>
-      <c r="C24" s="8" t="n"/>
+      <c r="C24" s="8" t="n">
+        <v>34</v>
+      </c>
       <c r="D24" s="41" t="n"/>
-      <c r="E24" s="8" t="n"/>
+      <c r="E24" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="F24" s="8" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="H24" s="24" t="n"/>
@@ -5791,7 +5797,7 @@
     <row r="25">
       <c r="A25" s="8" t="inlineStr">
         <is>
-          <t>发往无下文/退回</t>
+          <t>操作部惠玉粉</t>
         </is>
       </c>
       <c r="B25" s="8" t="n"/>
@@ -5806,9 +5812,9 @@
       <c r="K25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="inlineStr">
-        <is>
-          <t>南大区滞留/</t>
+      <c r="A26" s="42" t="inlineStr">
+        <is>
+          <t>操作部阚树东</t>
         </is>
       </c>
       <c r="B26" s="8" t="n"/>
@@ -5825,7 +5831,7 @@
     <row customHeight="1" ht="17.6" r="27" s="85">
       <c r="A27" s="8" t="inlineStr">
         <is>
-          <t>东大区滞留/</t>
+          <t>发往无下文/退回</t>
         </is>
       </c>
       <c r="B27" s="8" t="n"/>
@@ -5842,7 +5848,7 @@
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
         <is>
-          <t>西大区朱玉祥/错发</t>
+          <t>南大区滞留/</t>
         </is>
       </c>
       <c r="B28" s="8" t="n"/>
@@ -5857,38 +5863,72 @@
       <c r="K28" s="29" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="12" t="inlineStr">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>东大区滞留/</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="n"/>
+      <c r="C29" s="8" t="n"/>
+      <c r="D29" s="41" t="n"/>
+      <c r="E29" s="8" t="n"/>
+      <c r="F29" s="8" t="n"/>
+      <c r="G29" s="8" t="n"/>
+      <c r="H29" s="24" t="n"/>
+      <c r="I29" s="27" t="n"/>
+      <c r="J29" s="28" t="n"/>
+      <c r="K29" s="29" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>西大区朱玉祥/错发</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="n"/>
+      <c r="C30" s="8" t="n"/>
+      <c r="D30" s="41" t="n"/>
+      <c r="E30" s="8" t="n"/>
+      <c r="F30" s="8" t="n"/>
+      <c r="G30" s="8" t="n"/>
+      <c r="H30" s="24" t="n"/>
+      <c r="I30" s="27" t="n"/>
+      <c r="J30" s="28" t="n"/>
+      <c r="K30" s="29" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="12" t="inlineStr">
         <is>
           <t>大区合计</t>
         </is>
       </c>
-      <c r="B29" s="12" t="n"/>
-      <c r="C29" s="12" t="n">
-        <v>578</v>
-      </c>
-      <c r="D29" s="13" t="n"/>
-      <c r="E29" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="F29" s="12" t="n"/>
-      <c r="G29" s="12" t="n"/>
-      <c r="H29" s="12" t="n"/>
-      <c r="I29" s="12" t="n"/>
-      <c r="J29" s="30" t="n"/>
-      <c r="K29" s="31" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="14" t="inlineStr">
+      <c r="B31" s="12" t="n"/>
+      <c r="C31" s="12" t="n">
+        <v>295</v>
+      </c>
+      <c r="D31" s="13" t="n"/>
+      <c r="E31" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F31" s="12" t="n"/>
+      <c r="G31" s="12" t="n"/>
+      <c r="H31" s="12" t="n"/>
+      <c r="I31" s="12" t="n"/>
+      <c r="J31" s="30" t="n"/>
+      <c r="K31" s="31" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="14" t="inlineStr">
         <is>
           <t>制表人：何红</t>
         </is>
       </c>
-      <c r="B30" s="15" t="inlineStr">
+      <c r="B32" s="15" t="inlineStr">
         <is>
           <t>电话：18921880822</t>
         </is>
       </c>
-      <c r="C30" s="15" t="n"/>
+      <c r="C32" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5928,7 +5968,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -6067,46 +6107,38 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row customHeight="1" ht="14.4" r="7" s="85">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>宝龙805南苑小区孙丽</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="n"/>
-      <c r="C7" s="8" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" s="41" t="n"/>
-      <c r="E7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8" t="n"/>
-      <c r="G7" s="8" t="n"/>
-      <c r="H7" s="24" t="n"/>
-      <c r="I7" s="27" t="n"/>
-      <c r="J7" s="28" t="n"/>
-      <c r="K7" s="29" t="n"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>宝龙区805还振海经理</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="E7" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row customHeight="1" ht="14.4" r="8" s="85">
       <c r="A8" s="8" t="inlineStr">
         <is>
-          <t>宝龙区812张志华</t>
+          <t>宝龙805南苑小区孙丽</t>
         </is>
       </c>
       <c r="B8" s="8" t="n"/>
       <c r="C8" s="8" t="n">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="D8" s="41" t="n"/>
       <c r="E8" s="8" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="F8" s="8" t="n"/>
       <c r="G8" s="8" t="n"/>
@@ -6118,16 +6150,16 @@
     <row customHeight="1" ht="14.4" r="9" s="85">
       <c r="A9" s="8" t="inlineStr">
         <is>
-          <t>宝龙区6813金满</t>
+          <t>宝龙区812张志华</t>
         </is>
       </c>
       <c r="B9" s="8" t="n"/>
       <c r="C9" s="8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="D9" s="41" t="n"/>
       <c r="E9" s="8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="8" t="n"/>
       <c r="G9" s="8" t="n"/>
@@ -6139,16 +6171,16 @@
     <row customHeight="1" ht="14.4" r="10" s="85">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>宝龙区还振海经理RF1</t>
+          <t>宝龙区6813金满</t>
         </is>
       </c>
       <c r="B10" s="8" t="n"/>
       <c r="C10" s="8" t="n">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="D10" s="41" t="n"/>
       <c r="E10" s="8" t="n">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="F10" s="8" t="n"/>
       <c r="G10" s="8" t="n"/>
@@ -6160,17 +6192,13 @@
     <row customHeight="1" ht="14.4" r="11" s="85">
       <c r="A11" s="8" t="inlineStr">
         <is>
-          <t>宝龙区811大宇益林酱</t>
+          <t>宝龙区还振海经理RF1</t>
         </is>
       </c>
       <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n">
-        <v>59</v>
-      </c>
+      <c r="C11" s="8" t="n"/>
       <c r="D11" s="41" t="n"/>
-      <c r="E11" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="H11" s="24" t="n"/>
@@ -6181,12 +6209,12 @@
     <row customHeight="1" ht="14.4" r="12" s="85">
       <c r="A12" s="8" t="inlineStr">
         <is>
-          <t>宝龙区监察王仰洲6801</t>
+          <t>宝龙区811大宇益林酱</t>
         </is>
       </c>
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n">
-        <v>154</v>
+        <v>8</v>
       </c>
       <c r="D12" s="41" t="n"/>
       <c r="E12" s="8" t="n">
@@ -6202,16 +6230,16 @@
     <row customHeight="1" ht="14.4" r="13" s="85">
       <c r="A13" s="8" t="inlineStr">
         <is>
-          <t>宝龙区6803温馨陆文辉</t>
+          <t>宝龙区监察王仰洲6801</t>
         </is>
       </c>
       <c r="B13" s="8" t="n"/>
       <c r="C13" s="8" t="n">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D13" s="41" t="n"/>
       <c r="E13" s="8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
@@ -6223,16 +6251,16 @@
     <row customHeight="1" ht="14.4" r="14" s="85">
       <c r="A14" s="8" t="inlineStr">
         <is>
-          <t>宝龙区6802黄林</t>
+          <t>宝龙区6803温馨陆文辉</t>
         </is>
       </c>
       <c r="B14" s="8" t="n"/>
       <c r="C14" s="8" t="n">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="D14" s="41" t="n"/>
       <c r="E14" s="8" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F14" s="8" t="n"/>
       <c r="G14" s="8" t="n"/>
@@ -6244,16 +6272,16 @@
     <row customHeight="1" ht="14.4" r="15" s="85">
       <c r="A15" s="8" t="inlineStr">
         <is>
-          <t>宝龙区6808洪玉祥</t>
+          <t>宝龙区6802黄林</t>
         </is>
       </c>
       <c r="B15" s="8" t="n"/>
       <c r="C15" s="8" t="n">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="D15" s="41" t="n"/>
       <c r="E15" s="8" t="n">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="F15" s="8" t="n"/>
       <c r="G15" s="8" t="n"/>
@@ -6265,16 +6293,16 @@
     <row customHeight="1" ht="14.4" r="16" s="85">
       <c r="A16" s="8" t="inlineStr">
         <is>
-          <t>宝龙区7801宝龙陆雯倩</t>
+          <t>宝龙区6808洪玉祥</t>
         </is>
       </c>
       <c r="B16" s="8" t="n"/>
       <c r="C16" s="8" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D16" s="41" t="n"/>
       <c r="E16" s="8" t="n">
-        <v>54</v>
+        <v>287</v>
       </c>
       <c r="F16" s="8" t="n"/>
       <c r="G16" s="8" t="n"/>
@@ -6286,16 +6314,16 @@
     <row customHeight="1" ht="14.4" r="17" s="85">
       <c r="A17" s="8" t="inlineStr">
         <is>
-          <t>宝龙区7802汇景陆文亚</t>
+          <t>宝龙区7801宝龙陆雯倩</t>
         </is>
       </c>
       <c r="B17" s="8" t="n"/>
       <c r="C17" s="8" t="n">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D17" s="41" t="n"/>
       <c r="E17" s="8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F17" s="8" t="n"/>
       <c r="G17" s="8" t="n"/>
@@ -6307,16 +6335,16 @@
     <row customHeight="1" ht="14.4" r="18" s="85">
       <c r="A18" s="8" t="inlineStr">
         <is>
-          <t>宝龙区6806晏成</t>
+          <t>宝龙区7802汇景陆文亚</t>
         </is>
       </c>
       <c r="B18" s="8" t="n"/>
       <c r="C18" s="8" t="n">
-        <v>158</v>
+        <v>8</v>
       </c>
       <c r="D18" s="41" t="n"/>
       <c r="E18" s="8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="F18" s="8" t="n"/>
       <c r="G18" s="8" t="n"/>
@@ -6328,16 +6356,16 @@
     <row customHeight="1" ht="14.4" r="19" s="85">
       <c r="A19" s="8" t="inlineStr">
         <is>
-          <t>宝龙区6811唐华</t>
+          <t>宝龙区6806晏成</t>
         </is>
       </c>
       <c r="B19" s="8" t="n"/>
       <c r="C19" s="8" t="n">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D19" s="41" t="n"/>
       <c r="E19" s="8" t="n">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="F19" s="8" t="n"/>
       <c r="G19" s="8" t="n"/>
@@ -6349,16 +6377,16 @@
     <row customHeight="1" ht="14.4" r="20" s="85">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>宝龙区6807月湖杨树楼</t>
+          <t>宝龙区6811唐华</t>
         </is>
       </c>
       <c r="B20" s="8" t="n"/>
       <c r="C20" s="8" t="n">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="D20" s="41" t="n"/>
       <c r="E20" s="8" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F20" s="8" t="n"/>
       <c r="G20" s="8" t="n"/>
@@ -6370,16 +6398,16 @@
     <row customHeight="1" ht="14.4" r="21" s="85">
       <c r="A21" s="8" t="inlineStr">
         <is>
-          <t>宝龙区6810公园钱静</t>
+          <t>宝龙区6807月湖杨树楼</t>
         </is>
       </c>
       <c r="B21" s="8" t="n"/>
       <c r="C21" s="8" t="n">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="D21" s="41" t="n"/>
       <c r="E21" s="8" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="F21" s="8" t="n"/>
       <c r="G21" s="8" t="n"/>
@@ -6391,16 +6419,16 @@
     <row customHeight="1" ht="14.4" r="22" s="85">
       <c r="A22" s="8" t="inlineStr">
         <is>
-          <t>宝龙区5802娱乐张美娟</t>
+          <t>宝龙区6810公园钱静</t>
         </is>
       </c>
       <c r="B22" s="8" t="n"/>
       <c r="C22" s="8" t="n">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="D22" s="41" t="n"/>
       <c r="E22" s="8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F22" s="8" t="n"/>
       <c r="G22" s="8" t="n"/>
@@ -6412,12 +6440,12 @@
     <row customHeight="1" ht="14.4" r="23" s="85">
       <c r="A23" s="8" t="inlineStr">
         <is>
-          <t>宝龙区7812北港陈飞</t>
+          <t>宝龙区5802娱乐张美娟</t>
         </is>
       </c>
       <c r="B23" s="8" t="n"/>
       <c r="C23" s="8" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D23" s="41" t="n"/>
       <c r="E23" s="8" t="n">
@@ -6433,16 +6461,16 @@
     <row customHeight="1" ht="14.4" r="24" s="85">
       <c r="A24" s="8" t="inlineStr">
         <is>
-          <t>宝龙区8802八菱陈慧娟</t>
+          <t>宝龙区7812北港陈飞</t>
         </is>
       </c>
       <c r="B24" s="8" t="n"/>
       <c r="C24" s="8" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D24" s="41" t="n"/>
       <c r="E24" s="8" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F24" s="8" t="n"/>
       <c r="G24" s="8" t="n"/>
@@ -6454,16 +6482,16 @@
     <row customHeight="1" ht="14.4" r="25" s="85">
       <c r="A25" s="8" t="inlineStr">
         <is>
-          <t>宝龙区9811文化名城</t>
+          <t>宝龙区8802八菱陈慧娟</t>
         </is>
       </c>
       <c r="B25" s="8" t="n"/>
       <c r="C25" s="8" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D25" s="41" t="n"/>
       <c r="E25" s="8" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="F25" s="8" t="n"/>
       <c r="G25" s="8" t="n"/>
@@ -6471,15 +6499,11 @@
       <c r="I25" s="27" t="n"/>
       <c r="J25" s="28" t="n"/>
       <c r="K25" s="29" t="n"/>
-      <c r="L25" s="58" t="n"/>
-      <c r="M25" s="58" t="n"/>
-      <c r="N25" s="58" t="n"/>
-      <c r="O25" s="58" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="26" s="85">
       <c r="A26" s="8" t="inlineStr">
         <is>
-          <t>宝龙区滞留</t>
+          <t>宝龙区9811文化名城</t>
         </is>
       </c>
       <c r="B26" s="8" t="n"/>
@@ -6500,7 +6524,7 @@
     <row customHeight="1" ht="14.4" r="27" s="85">
       <c r="A27" s="8" t="inlineStr">
         <is>
-          <t>宝龙公司姜月东</t>
+          <t>宝龙区滞留</t>
         </is>
       </c>
       <c r="B27" s="8" t="n"/>
@@ -6521,13 +6545,17 @@
     <row customHeight="1" ht="14.4" r="28" s="85">
       <c r="A28" s="8" t="inlineStr">
         <is>
-          <t>宝龙区805紫金屠竹云</t>
+          <t>宝龙公司姜月东</t>
         </is>
       </c>
       <c r="B28" s="8" t="n"/>
-      <c r="C28" s="8" t="n"/>
+      <c r="C28" s="8" t="n">
+        <v>27</v>
+      </c>
       <c r="D28" s="41" t="n"/>
-      <c r="E28" s="8" t="n"/>
+      <c r="E28" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="F28" s="8" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="H28" s="24" t="n"/>
@@ -6542,7 +6570,7 @@
     <row customHeight="1" ht="14.4" r="29" s="85">
       <c r="A29" s="8" t="inlineStr">
         <is>
-          <t>宝龙区6809宏图耿长贵</t>
+          <t>宝龙区805紫金屠竹云</t>
         </is>
       </c>
       <c r="B29" s="8" t="n"/>
@@ -6563,7 +6591,7 @@
     <row customHeight="1" ht="14.4" r="30" s="85">
       <c r="A30" s="8" t="inlineStr">
         <is>
-          <t>宝龙区7808订单</t>
+          <t>宝龙区6809宏图耿长贵</t>
         </is>
       </c>
       <c r="B30" s="8" t="n"/>
@@ -6584,7 +6612,7 @@
     <row customHeight="1" ht="14.4" r="31" s="85">
       <c r="A31" s="8" t="inlineStr">
         <is>
-          <t>宝龙区805文景花园</t>
+          <t>宝龙区7808订单</t>
         </is>
       </c>
       <c r="B31" s="8" t="n"/>
@@ -6605,7 +6633,7 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="32" s="33">
       <c r="A32" s="8" t="inlineStr">
         <is>
-          <t>宝龙区驾驶员顾爱亚</t>
+          <t>宝龙区805文景花园</t>
         </is>
       </c>
       <c r="B32" s="8" t="n"/>
@@ -6626,7 +6654,7 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="33" s="33">
       <c r="A33" s="8" t="inlineStr">
         <is>
-          <t>宝龙区驾驶员王小艺</t>
+          <t>宝龙区驾驶员顾爱亚</t>
         </is>
       </c>
       <c r="B33" s="8" t="n"/>
@@ -6639,11 +6667,15 @@
       <c r="I33" s="27" t="n"/>
       <c r="J33" s="28" t="n"/>
       <c r="K33" s="29" t="n"/>
+      <c r="L33" s="58" t="n"/>
+      <c r="M33" s="58" t="n"/>
+      <c r="N33" s="58" t="n"/>
+      <c r="O33" s="58" t="n"/>
     </row>
     <row customHeight="1" ht="17.6" r="34" s="85">
       <c r="A34" s="8" t="inlineStr">
         <is>
-          <t>宝龙区发往无下文</t>
+          <t>宝龙区驾驶员王小艺</t>
         </is>
       </c>
       <c r="B34" s="8" t="n"/>
@@ -6658,46 +6690,63 @@
       <c r="K34" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="14.8" r="35" s="85">
-      <c r="A35" s="12" t="inlineStr">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>宝龙区发往无下文</t>
+        </is>
+      </c>
+      <c r="B35" s="8" t="n"/>
+      <c r="C35" s="8" t="n"/>
+      <c r="D35" s="41" t="n"/>
+      <c r="E35" s="8" t="n"/>
+      <c r="F35" s="8" t="n"/>
+      <c r="G35" s="8" t="n"/>
+      <c r="H35" s="24" t="n"/>
+      <c r="I35" s="27" t="n"/>
+      <c r="J35" s="28" t="n"/>
+      <c r="K35" s="29" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="12" t="inlineStr">
         <is>
           <t>大区合计</t>
         </is>
       </c>
-      <c r="B35" s="12" t="n"/>
-      <c r="C35" s="12" t="n">
-        <v>2050</v>
-      </c>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n">
-        <v>482</v>
-      </c>
-      <c r="F35" s="12" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="12" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="12" t="n"/>
-      <c r="K35" s="13" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="14" t="inlineStr">
+      <c r="B36" s="12" t="n"/>
+      <c r="C36" s="12" t="n">
+        <v>584</v>
+      </c>
+      <c r="D36" s="13" t="n"/>
+      <c r="E36" s="12" t="n">
+        <v>1210</v>
+      </c>
+      <c r="F36" s="12" t="n"/>
+      <c r="G36" s="12" t="n"/>
+      <c r="H36" s="12" t="n"/>
+      <c r="I36" s="12" t="n"/>
+      <c r="J36" s="12" t="n"/>
+      <c r="K36" s="13" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="14" t="inlineStr">
         <is>
           <t>制表人：何红</t>
         </is>
       </c>
-      <c r="B36" s="15" t="inlineStr">
+      <c r="B37" s="15" t="inlineStr">
         <is>
           <t>电话：18921880822</t>
         </is>
       </c>
-      <c r="C36" s="15" t="n"/>
-      <c r="D36" s="15" t="n"/>
-      <c r="E36" s="15" t="n"/>
-      <c r="F36" s="15" t="n"/>
-      <c r="G36" s="15" t="n"/>
-      <c r="H36" s="15" t="n"/>
-      <c r="I36" s="15" t="n"/>
-      <c r="J36" s="15" t="n"/>
-      <c r="K36" s="15" t="n"/>
+      <c r="C37" s="15" t="n"/>
+      <c r="D37" s="15" t="n"/>
+      <c r="E37" s="15" t="n"/>
+      <c r="F37" s="15" t="n"/>
+      <c r="G37" s="15" t="n"/>
+      <c r="H37" s="15" t="n"/>
+      <c r="I37" s="15" t="n"/>
+      <c r="J37" s="15" t="n"/>
+      <c r="K37" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6734,7 +6783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -6864,36 +6913,28 @@
       <c r="K5" s="89" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>新都区滞留</t>
-        </is>
-      </c>
-      <c r="B6" s="8" t="n"/>
-      <c r="C6" s="8" t="n"/>
-      <c r="D6" s="41" t="n"/>
-      <c r="E6" s="8" t="n"/>
-      <c r="F6" s="8" t="n"/>
-      <c r="G6" s="8" t="n"/>
-      <c r="H6" s="24" t="n"/>
-      <c r="I6" s="27" t="n"/>
-      <c r="J6" s="28" t="n"/>
-      <c r="K6" s="29" t="n"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>新都区6415唐守平</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>191</v>
+      </c>
+      <c r="E6" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="inlineStr">
         <is>
-          <t>新都区6418杨朗峰</t>
+          <t>新都区滞留</t>
         </is>
       </c>
       <c r="B7" s="8" t="n"/>
-      <c r="C7" s="8" t="n">
-        <v>294</v>
-      </c>
+      <c r="C7" s="8" t="n"/>
       <c r="D7" s="41" t="n"/>
-      <c r="E7" s="8" t="n">
-        <v>6</v>
-      </c>
+      <c r="E7" s="8" t="n"/>
       <c r="F7" s="8" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="H7" s="24" t="n"/>
@@ -6904,16 +6945,16 @@
     <row r="8">
       <c r="A8" s="8" t="inlineStr">
         <is>
-          <t>新都区6406王浩</t>
+          <t>新都区6418杨朗峰</t>
         </is>
       </c>
       <c r="B8" s="8" t="n"/>
       <c r="C8" s="8" t="n">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="D8" s="41" t="n"/>
       <c r="E8" s="8" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F8" s="8" t="n"/>
       <c r="G8" s="8" t="n"/>
@@ -6925,38 +6966,37 @@
     <row r="9">
       <c r="A9" s="8" t="inlineStr">
         <is>
-          <t>新都区6416朱迎龙</t>
+          <t>新都区6406王浩</t>
         </is>
       </c>
       <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n"/>
+      <c r="C9" s="8" t="n">
+        <v>36</v>
+      </c>
       <c r="D9" s="41" t="n"/>
-      <c r="E9" s="8" t="n"/>
+      <c r="E9" s="8" t="n">
+        <v>68</v>
+      </c>
       <c r="F9" s="8" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="H9" s="24" t="n"/>
       <c r="I9" s="27" t="n"/>
       <c r="J9" s="28" t="n"/>
       <c r="K9" s="29" t="n"/>
-      <c r="L9" s="64" t="n"/>
-      <c r="M9" s="64" t="n"/>
-      <c r="N9" s="64" t="n"/>
-      <c r="O9" s="64" t="n"/>
-      <c r="P9" s="64" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>新都区6420陈宏才</t>
+          <t>新都区6416朱迎龙</t>
         </is>
       </c>
       <c r="B10" s="8" t="n"/>
       <c r="C10" s="8" t="n">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="D10" s="41" t="n"/>
       <c r="E10" s="8" t="n">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="F10" s="8" t="n"/>
       <c r="G10" s="8" t="n"/>
@@ -6973,16 +7013,16 @@
     <row r="11">
       <c r="A11" s="8" t="inlineStr">
         <is>
-          <t>新都423中海陆登琴</t>
+          <t>新都区6420陈宏才</t>
         </is>
       </c>
       <c r="B11" s="8" t="n"/>
       <c r="C11" s="8" t="n">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="D11" s="41" t="n"/>
       <c r="E11" s="8" t="n">
-        <v>2</v>
+        <v>235</v>
       </c>
       <c r="F11" s="8" t="n"/>
       <c r="G11" s="8" t="n"/>
@@ -6999,16 +7039,16 @@
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
-          <t>新都区KA1唐守平</t>
+          <t>新都423中海陆登琴</t>
         </is>
       </c>
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n">
-        <v>370</v>
+        <v>23</v>
       </c>
       <c r="D12" s="41" t="n"/>
       <c r="E12" s="8" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F12" s="8" t="n"/>
       <c r="G12" s="8" t="n"/>
@@ -7025,17 +7065,13 @@
     <row r="13">
       <c r="A13" s="8" t="inlineStr">
         <is>
-          <t>新都区416福裕小区</t>
+          <t>新都区KA1唐守平</t>
         </is>
       </c>
       <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n">
-        <v>101</v>
-      </c>
+      <c r="C13" s="8" t="n"/>
       <c r="D13" s="41" t="n"/>
-      <c r="E13" s="8" t="n">
-        <v>6</v>
-      </c>
+      <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="H13" s="24" t="n"/>
@@ -7051,16 +7087,16 @@
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
         <is>
-          <t>新都机电6911王浩</t>
+          <t>新都区416福裕小区</t>
         </is>
       </c>
       <c r="B14" s="8" t="n"/>
       <c r="C14" s="8" t="n">
-        <v>365</v>
+        <v>14</v>
       </c>
       <c r="D14" s="41" t="n"/>
       <c r="E14" s="8" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F14" s="8" t="n"/>
       <c r="G14" s="8" t="n"/>
@@ -7077,16 +7113,16 @@
     <row r="15">
       <c r="A15" s="8" t="inlineStr">
         <is>
-          <t>新都阜师6910王浩</t>
+          <t>新都机电6911王浩</t>
         </is>
       </c>
       <c r="B15" s="8" t="n"/>
       <c r="C15" s="8" t="n">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="D15" s="41" t="n"/>
       <c r="E15" s="8" t="n">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="F15" s="8" t="n"/>
       <c r="G15" s="8" t="n"/>
@@ -7103,16 +7139,16 @@
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
         <is>
-          <t>新都卫校6909王浩</t>
+          <t>新都阜师6910王浩</t>
         </is>
       </c>
       <c r="B16" s="8" t="n"/>
       <c r="C16" s="8" t="n">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="D16" s="41" t="n"/>
       <c r="E16" s="8" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F16" s="8" t="n"/>
       <c r="G16" s="8" t="n"/>
@@ -7129,16 +7165,16 @@
     <row r="17">
       <c r="A17" s="8" t="inlineStr">
         <is>
-          <t>新都区8416小兵崔雷</t>
+          <t>新都卫校6909王浩</t>
         </is>
       </c>
       <c r="B17" s="8" t="n"/>
       <c r="C17" s="8" t="n">
-        <v>62</v>
+        <v>364</v>
       </c>
       <c r="D17" s="41" t="n"/>
       <c r="E17" s="8" t="n">
-        <v>5</v>
+        <v>206</v>
       </c>
       <c r="F17" s="8" t="n"/>
       <c r="G17" s="8" t="n"/>
@@ -7155,12 +7191,12 @@
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
         <is>
-          <t>新都纺校6914王浩</t>
+          <t>新都区8416小兵崔雷</t>
         </is>
       </c>
       <c r="B18" s="8" t="n"/>
       <c r="C18" s="8" t="n">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="D18" s="41" t="n"/>
       <c r="E18" s="8" t="n">
@@ -7181,16 +7217,16 @@
     <row r="19">
       <c r="A19" s="8" t="inlineStr">
         <is>
-          <t>新都区422金色蓝庭</t>
+          <t>新都纺校6914王浩</t>
         </is>
       </c>
       <c r="B19" s="8" t="n"/>
       <c r="C19" s="8" t="n">
-        <v>55</v>
+        <v>253</v>
       </c>
       <c r="D19" s="41" t="n"/>
       <c r="E19" s="8" t="n">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="F19" s="8" t="n"/>
       <c r="G19" s="8" t="n"/>
@@ -7207,16 +7243,16 @@
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>新都区416锦城丽景</t>
+          <t>新都区422金色蓝庭</t>
         </is>
       </c>
       <c r="B20" s="8" t="n"/>
       <c r="C20" s="8" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D20" s="41" t="n"/>
       <c r="E20" s="8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F20" s="8" t="n"/>
       <c r="G20" s="8" t="n"/>
@@ -7233,12 +7269,12 @@
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
         <is>
-          <t>新都区416日月名苑</t>
+          <t>新都区416锦城丽景</t>
         </is>
       </c>
       <c r="B21" s="8" t="n"/>
       <c r="C21" s="8" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D21" s="41" t="n"/>
       <c r="E21" s="8" t="n">
@@ -7259,16 +7295,16 @@
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
         <is>
-          <t>新都区416孙匡安明商</t>
+          <t>新都区416日月名苑</t>
         </is>
       </c>
       <c r="B22" s="8" t="n"/>
       <c r="C22" s="8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="41" t="n"/>
       <c r="E22" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F22" s="8" t="n"/>
       <c r="G22" s="8" t="n"/>
@@ -7285,7 +7321,7 @@
     <row r="23">
       <c r="A23" s="8" t="inlineStr">
         <is>
-          <t>新都区发往无下文</t>
+          <t>新都区416孙匡安明商</t>
         </is>
       </c>
       <c r="B23" s="8" t="n"/>
@@ -7307,7 +7343,7 @@
     <row r="24">
       <c r="A24" s="8" t="inlineStr">
         <is>
-          <t>新都446丽都王丽君</t>
+          <t>新都区发往无下文</t>
         </is>
       </c>
       <c r="B24" s="8" t="n"/>
@@ -7329,7 +7365,7 @@
     <row r="25">
       <c r="A25" s="8" t="inlineStr">
         <is>
-          <t>新都447新都花园房燕</t>
+          <t>新都446丽都王丽君</t>
         </is>
       </c>
       <c r="B25" s="8" t="n"/>
@@ -7342,11 +7378,16 @@
       <c r="I25" s="27" t="n"/>
       <c r="J25" s="28" t="n"/>
       <c r="K25" s="29" t="n"/>
+      <c r="L25" s="64" t="n"/>
+      <c r="M25" s="64" t="n"/>
+      <c r="N25" s="64" t="n"/>
+      <c r="O25" s="64" t="n"/>
+      <c r="P25" s="64" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
         <is>
-          <t>新都区裹裹代理王浩</t>
+          <t>新都447新都花园房燕</t>
         </is>
       </c>
       <c r="B26" s="8" t="n"/>
@@ -7363,7 +7404,7 @@
     <row r="27">
       <c r="A27" s="8" t="inlineStr">
         <is>
-          <t>新都区机动王峰</t>
+          <t>新都区裹裹代理王浩</t>
         </is>
       </c>
       <c r="B27" s="8" t="n"/>
@@ -7378,44 +7419,61 @@
       <c r="K27" s="29" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="17.6" r="28" s="33">
-      <c r="A28" s="12" t="inlineStr">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>新都区机动王峰</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="n"/>
+      <c r="C28" s="8" t="n"/>
+      <c r="D28" s="41" t="n"/>
+      <c r="E28" s="8" t="n"/>
+      <c r="F28" s="8" t="n"/>
+      <c r="G28" s="8" t="n"/>
+      <c r="H28" s="24" t="n"/>
+      <c r="I28" s="27" t="n"/>
+      <c r="J28" s="28" t="n"/>
+      <c r="K28" s="29" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="12" t="inlineStr">
         <is>
           <t>大区合计</t>
         </is>
       </c>
-      <c r="B28" s="12" t="n"/>
-      <c r="C28" s="12" t="n">
-        <v>2334</v>
-      </c>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n">
-        <v>217</v>
-      </c>
-      <c r="F28" s="12" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="12" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="30" t="n"/>
-      <c r="K28" s="31" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="14" t="inlineStr">
+      <c r="B29" s="12" t="n"/>
+      <c r="C29" s="12" t="n">
+        <v>1589</v>
+      </c>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="12" t="n">
+        <v>1410</v>
+      </c>
+      <c r="F29" s="12" t="n"/>
+      <c r="G29" s="12" t="n"/>
+      <c r="H29" s="12" t="n"/>
+      <c r="I29" s="12" t="n"/>
+      <c r="J29" s="30" t="n"/>
+      <c r="K29" s="31" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="14" t="inlineStr">
         <is>
           <t>制表人：何红</t>
         </is>
       </c>
-      <c r="B29" s="15" t="inlineStr">
+      <c r="B30" s="15" t="inlineStr">
         <is>
           <t>电话：18921880822</t>
         </is>
       </c>
-      <c r="C29" s="15" t="n"/>
-      <c r="D29" s="15" t="n"/>
-      <c r="E29" s="15" t="n"/>
-      <c r="F29" s="15" t="n"/>
-      <c r="G29" s="15" t="n"/>
-      <c r="H29" s="15" t="n"/>
-      <c r="I29" s="15" t="n"/>
+      <c r="C30" s="15" t="n"/>
+      <c r="D30" s="15" t="n"/>
+      <c r="E30" s="15" t="n"/>
+      <c r="F30" s="15" t="n"/>
+      <c r="G30" s="15" t="n"/>
+      <c r="H30" s="15" t="n"/>
+      <c r="I30" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7458,7 +7516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -7590,60 +7648,56 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>城南驾驶员陈志勇</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>城南区413柏权</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>185</v>
-      </c>
-      <c r="E6" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>城南434新弄里翟志标</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="n"/>
-      <c r="C7" s="8" t="n"/>
-      <c r="D7" s="41" t="n"/>
-      <c r="E7" s="8" t="n"/>
-      <c r="F7" s="8" t="n"/>
-      <c r="G7" s="8" t="n"/>
-      <c r="H7" s="24" t="n"/>
-      <c r="I7" s="27" t="n"/>
-      <c r="J7" s="28" t="n"/>
-      <c r="K7" s="29" t="n"/>
+      <c r="C7" t="n">
+        <v>60</v>
+      </c>
+      <c r="E7" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>城南443兴邦中央</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="n"/>
-      <c r="C8" s="8" t="n"/>
-      <c r="D8" s="41" t="n"/>
-      <c r="E8" s="8" t="n"/>
-      <c r="F8" s="8" t="n"/>
-      <c r="G8" s="8" t="n"/>
-      <c r="H8" s="24" t="n"/>
-      <c r="I8" s="27" t="n"/>
-      <c r="J8" s="28" t="n"/>
-      <c r="K8" s="29" t="n"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>城南区6422橡树张金萍</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="inlineStr">
         <is>
-          <t>城南区滞留</t>
+          <t>城南434新弄里翟志标</t>
         </is>
       </c>
       <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n"/>
+      <c r="C9" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="D9" s="41" t="n"/>
-      <c r="E9" s="8" t="n"/>
+      <c r="E9" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="F9" s="8" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="H9" s="24" t="n"/>
@@ -7654,17 +7708,13 @@
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>城南445城南医丁翠娟</t>
+          <t>城南443兴邦中央</t>
         </is>
       </c>
       <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n">
-        <v>20</v>
-      </c>
+      <c r="C10" s="8" t="n"/>
       <c r="D10" s="41" t="n"/>
-      <c r="E10" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E10" s="8" t="n"/>
       <c r="F10" s="8" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="H10" s="24" t="n"/>
@@ -7675,17 +7725,13 @@
     <row r="11">
       <c r="A11" s="8" t="inlineStr">
         <is>
-          <t>城南驾驶员卞锦军</t>
+          <t>城南区滞留</t>
         </is>
       </c>
       <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n">
-        <v>129</v>
-      </c>
+      <c r="C11" s="8" t="n"/>
       <c r="D11" s="41" t="n"/>
-      <c r="E11" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="H11" s="24" t="n"/>
@@ -7696,16 +7742,16 @@
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
-          <t>城南428中南6期8101</t>
+          <t>城南445城南医丁翠娟</t>
         </is>
       </c>
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="41" t="n"/>
       <c r="E12" s="8" t="n">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="F12" s="8" t="n"/>
       <c r="G12" s="8" t="n"/>
@@ -7717,16 +7763,16 @@
     <row r="13">
       <c r="A13" s="8" t="inlineStr">
         <is>
-          <t>城南区6403王超</t>
+          <t>城南驾驶员卞锦军</t>
         </is>
       </c>
       <c r="B13" s="8" t="n"/>
       <c r="C13" s="8" t="n">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="D13" s="41" t="n"/>
       <c r="E13" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
@@ -7738,12 +7784,12 @@
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
         <is>
-          <t>城南区421中环紫郡</t>
+          <t>城南428中南6期8101</t>
         </is>
       </c>
       <c r="B14" s="8" t="n"/>
       <c r="C14" s="8" t="n">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="D14" s="41" t="n"/>
       <c r="E14" s="8" t="n">
@@ -7759,16 +7805,16 @@
     <row r="15">
       <c r="A15" s="8" t="inlineStr">
         <is>
-          <t>城南441四季金辉王超</t>
+          <t>城南区6403王超</t>
         </is>
       </c>
       <c r="B15" s="8" t="n"/>
       <c r="C15" s="8" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D15" s="41" t="n"/>
       <c r="E15" s="8" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="F15" s="8" t="n"/>
       <c r="G15" s="8" t="n"/>
@@ -7780,16 +7826,16 @@
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
         <is>
-          <t>城南429阳光御戈建春</t>
+          <t>城南区421中环紫郡</t>
         </is>
       </c>
       <c r="B16" s="8" t="n"/>
       <c r="C16" s="8" t="n">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D16" s="41" t="n"/>
       <c r="E16" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="8" t="n"/>
       <c r="G16" s="8" t="n"/>
@@ -7801,16 +7847,16 @@
     <row r="17">
       <c r="A17" s="8" t="inlineStr">
         <is>
-          <t>城南区6405李勇</t>
+          <t>城南441四季金辉王超</t>
         </is>
       </c>
       <c r="B17" s="8" t="n"/>
       <c r="C17" s="8" t="n">
-        <v>263</v>
+        <v>6</v>
       </c>
       <c r="D17" s="41" t="n"/>
       <c r="E17" s="8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17" s="8" t="n"/>
       <c r="G17" s="8" t="n"/>
@@ -7822,16 +7868,16 @@
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
         <is>
-          <t>城南424橡树湾陶开文</t>
+          <t>城南429阳光御戈建春</t>
         </is>
       </c>
       <c r="B18" s="8" t="n"/>
       <c r="C18" s="8" t="n">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="D18" s="41" t="n"/>
       <c r="E18" s="8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F18" s="8" t="n"/>
       <c r="G18" s="8" t="n"/>
@@ -7843,16 +7889,16 @@
     <row r="19">
       <c r="A19" s="8" t="inlineStr">
         <is>
-          <t>城南444金辉城葛学如</t>
+          <t>城南区6405李勇</t>
         </is>
       </c>
       <c r="B19" s="8" t="n"/>
       <c r="C19" s="8" t="n">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="D19" s="41" t="n"/>
       <c r="E19" s="8" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F19" s="8" t="n"/>
       <c r="G19" s="8" t="n"/>
@@ -7860,26 +7906,20 @@
       <c r="I19" s="27" t="n"/>
       <c r="J19" s="28" t="n"/>
       <c r="K19" s="29" t="n"/>
-      <c r="L19" s="64" t="n"/>
-      <c r="M19" s="64" t="n"/>
-      <c r="N19" s="64" t="n"/>
-      <c r="O19" s="64" t="n"/>
-      <c r="P19" s="64" t="n"/>
-      <c r="Q19" s="64" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>城南413朱建军</t>
+          <t>城南424橡树湾陶开文</t>
         </is>
       </c>
       <c r="B20" s="8" t="n"/>
       <c r="C20" s="8" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D20" s="41" t="n"/>
       <c r="E20" s="8" t="n">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="F20" s="8" t="n"/>
       <c r="G20" s="8" t="n"/>
@@ -7887,26 +7927,20 @@
       <c r="I20" s="27" t="n"/>
       <c r="J20" s="28" t="n"/>
       <c r="K20" s="29" t="n"/>
-      <c r="L20" s="64" t="n"/>
-      <c r="M20" s="64" t="n"/>
-      <c r="N20" s="64" t="n"/>
-      <c r="O20" s="64" t="n"/>
-      <c r="P20" s="64" t="n"/>
-      <c r="Q20" s="64" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
         <is>
-          <t>城南426领秀吴士海</t>
+          <t>城南444金辉城葛学如</t>
         </is>
       </c>
       <c r="B21" s="8" t="n"/>
       <c r="C21" s="8" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D21" s="41" t="n"/>
       <c r="E21" s="8" t="n">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="F21" s="8" t="n"/>
       <c r="G21" s="8" t="n"/>
@@ -7924,16 +7958,16 @@
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
         <is>
-          <t>城南427香苑东顾春燕</t>
+          <t>城南413朱建军</t>
         </is>
       </c>
       <c r="B22" s="8" t="n"/>
       <c r="C22" s="8" t="n">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="D22" s="41" t="n"/>
       <c r="E22" s="8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F22" s="8" t="n"/>
       <c r="G22" s="8" t="n"/>
@@ -7951,16 +7985,16 @@
     <row r="23">
       <c r="A23" s="8" t="inlineStr">
         <is>
-          <t>城南437光明花园乔乔</t>
+          <t>城南426领秀吴士海</t>
         </is>
       </c>
       <c r="B23" s="8" t="n"/>
       <c r="C23" s="8" t="n">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D23" s="41" t="n"/>
       <c r="E23" s="8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F23" s="8" t="n"/>
       <c r="G23" s="8" t="n"/>
@@ -7978,16 +8012,16 @@
     <row r="24">
       <c r="A24" s="8" t="inlineStr">
         <is>
-          <t>城南815魔力孙祝明</t>
+          <t>城南427香苑东顾春燕</t>
         </is>
       </c>
       <c r="B24" s="8" t="n"/>
       <c r="C24" s="8" t="n">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="D24" s="41" t="n"/>
       <c r="E24" s="8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F24" s="8" t="n"/>
       <c r="G24" s="8" t="n"/>
@@ -8005,16 +8039,16 @@
     <row r="25">
       <c r="A25" s="8" t="inlineStr">
         <is>
-          <t>城南区6401程悦涵</t>
+          <t>城南437光明花园乔乔</t>
         </is>
       </c>
       <c r="B25" s="8" t="n"/>
       <c r="C25" s="8" t="n">
-        <v>318</v>
+        <v>25</v>
       </c>
       <c r="D25" s="41" t="n"/>
       <c r="E25" s="8" t="n">
-        <v>245</v>
+        <v>8</v>
       </c>
       <c r="F25" s="8" t="n"/>
       <c r="G25" s="8" t="n"/>
@@ -8032,16 +8066,16 @@
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
         <is>
-          <t>城南区6408凤鸣翁梅芳</t>
+          <t>城南815魔力孙祝明</t>
         </is>
       </c>
       <c r="B26" s="8" t="n"/>
       <c r="C26" s="8" t="n">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="D26" s="41" t="n"/>
       <c r="E26" s="8" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F26" s="8" t="n"/>
       <c r="G26" s="8" t="n"/>
@@ -8059,16 +8093,16 @@
     <row r="27">
       <c r="A27" s="8" t="inlineStr">
         <is>
-          <t>城南区6419韦浩</t>
+          <t>城南区6401程悦涵</t>
         </is>
       </c>
       <c r="B27" s="8" t="n"/>
       <c r="C27" s="8" t="n">
-        <v>601</v>
+        <v>32</v>
       </c>
       <c r="D27" s="41" t="n"/>
       <c r="E27" s="8" t="n">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="F27" s="8" t="n"/>
       <c r="G27" s="8" t="n"/>
@@ -8086,16 +8120,16 @@
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
         <is>
-          <t>城南440碧桂珑悦朱涛</t>
+          <t>城南区6408凤鸣翁梅芳</t>
         </is>
       </c>
       <c r="B28" s="8" t="n"/>
       <c r="C28" s="8" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D28" s="41" t="n"/>
       <c r="E28" s="8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F28" s="8" t="n"/>
       <c r="G28" s="8" t="n"/>
@@ -8113,16 +8147,16 @@
     <row r="29">
       <c r="A29" s="8" t="inlineStr">
         <is>
-          <t>城南区聚龙中心411黄</t>
+          <t>城南区6419韦浩</t>
         </is>
       </c>
       <c r="B29" s="8" t="n"/>
       <c r="C29" s="8" t="n">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="D29" s="41" t="n"/>
       <c r="E29" s="8" t="n">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="F29" s="8" t="n"/>
       <c r="G29" s="8" t="n"/>
@@ -8140,17 +8174,13 @@
     <row r="30">
       <c r="A30" s="8" t="inlineStr">
         <is>
-          <t>运营部朱华荣</t>
+          <t>城南440碧桂珑悦朱涛</t>
         </is>
       </c>
       <c r="B30" s="8" t="n"/>
-      <c r="C30" s="8" t="n">
-        <v>79</v>
-      </c>
+      <c r="C30" s="8" t="n"/>
       <c r="D30" s="41" t="n"/>
-      <c r="E30" s="8" t="n">
-        <v>32</v>
-      </c>
+      <c r="E30" s="8" t="n"/>
       <c r="F30" s="8" t="n"/>
       <c r="G30" s="8" t="n"/>
       <c r="H30" s="24" t="n"/>
@@ -8167,16 +8197,16 @@
     <row r="31">
       <c r="A31" s="8" t="inlineStr">
         <is>
-          <t>城南432锦盛南浦冬梅</t>
+          <t>城南区聚龙中心411黄</t>
         </is>
       </c>
       <c r="B31" s="8" t="n"/>
       <c r="C31" s="8" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D31" s="41" t="n"/>
       <c r="E31" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F31" s="8" t="n"/>
       <c r="G31" s="8" t="n"/>
@@ -8194,37 +8224,39 @@
     <row r="32">
       <c r="A32" s="8" t="inlineStr">
         <is>
-          <t>城南435中南城9期吴名</t>
+          <t>运营部朱华荣</t>
         </is>
       </c>
       <c r="B32" s="8" t="n"/>
-      <c r="C32" s="8" t="n">
-        <v>6</v>
-      </c>
+      <c r="C32" s="8" t="n"/>
       <c r="D32" s="41" t="n"/>
-      <c r="E32" s="8" t="n">
-        <v>36</v>
-      </c>
+      <c r="E32" s="8" t="n"/>
       <c r="F32" s="8" t="n"/>
       <c r="G32" s="8" t="n"/>
       <c r="H32" s="24" t="n"/>
       <c r="I32" s="27" t="n"/>
       <c r="J32" s="28" t="n"/>
       <c r="K32" s="29" t="n"/>
+      <c r="L32" s="64" t="n"/>
+      <c r="M32" s="64" t="n"/>
+      <c r="N32" s="64" t="n"/>
+      <c r="O32" s="64" t="n"/>
+      <c r="P32" s="64" t="n"/>
+      <c r="Q32" s="64" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="8" t="inlineStr">
         <is>
-          <t>城南区6907康乐王荣</t>
+          <t>城南432锦盛南浦冬梅</t>
         </is>
       </c>
       <c r="B33" s="8" t="n"/>
       <c r="C33" s="8" t="n">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="D33" s="41" t="n"/>
       <c r="E33" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="8" t="n"/>
       <c r="G33" s="8" t="n"/>
@@ -8232,20 +8264,26 @@
       <c r="I33" s="27" t="n"/>
       <c r="J33" s="28" t="n"/>
       <c r="K33" s="29" t="n"/>
+      <c r="L33" s="64" t="n"/>
+      <c r="M33" s="64" t="n"/>
+      <c r="N33" s="64" t="n"/>
+      <c r="O33" s="64" t="n"/>
+      <c r="P33" s="64" t="n"/>
+      <c r="Q33" s="64" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
-          <t>城南425锦盛北小徐</t>
+          <t>城南435中南城9期吴名</t>
         </is>
       </c>
       <c r="B34" s="8" t="n"/>
       <c r="C34" s="8" t="n">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="D34" s="41" t="n"/>
       <c r="E34" s="8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F34" s="8" t="n"/>
       <c r="G34" s="8" t="n"/>
@@ -8257,16 +8295,16 @@
     <row r="35">
       <c r="A35" s="8" t="inlineStr">
         <is>
-          <t>城南区6407海德王荣</t>
+          <t>城南区6907康乐王荣</t>
         </is>
       </c>
       <c r="B35" s="8" t="n"/>
       <c r="C35" s="8" t="n">
-        <v>347</v>
+        <v>11</v>
       </c>
       <c r="D35" s="41" t="n"/>
       <c r="E35" s="8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F35" s="8" t="n"/>
       <c r="G35" s="8" t="n"/>
@@ -8278,16 +8316,16 @@
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
         <is>
-          <t>城南438中海郭成岗</t>
+          <t>城南425锦盛北小徐</t>
         </is>
       </c>
       <c r="B36" s="8" t="n"/>
       <c r="C36" s="8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D36" s="41" t="n"/>
       <c r="E36" s="8" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F36" s="8" t="n"/>
       <c r="G36" s="8" t="n"/>
@@ -8299,16 +8337,16 @@
     <row r="37">
       <c r="A37" s="8" t="inlineStr">
         <is>
-          <t>城南439通银张睿智</t>
+          <t>城南区6407海德王荣</t>
         </is>
       </c>
       <c r="B37" s="8" t="n"/>
       <c r="C37" s="8" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D37" s="41" t="n"/>
       <c r="E37" s="8" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F37" s="8" t="n"/>
       <c r="G37" s="8" t="n"/>
@@ -8320,16 +8358,16 @@
     <row r="38">
       <c r="A38" s="8" t="inlineStr">
         <is>
-          <t>城南433优步潘为玮</t>
+          <t>城南438中海郭成岗</t>
         </is>
       </c>
       <c r="B38" s="8" t="n"/>
       <c r="C38" s="8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D38" s="41" t="n"/>
       <c r="E38" s="8" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F38" s="8" t="n"/>
       <c r="G38" s="8" t="n"/>
@@ -8341,17 +8379,13 @@
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
         <is>
-          <t>城南区804严靖凯</t>
+          <t>城南439通银张睿智</t>
         </is>
       </c>
       <c r="B39" s="8" t="n"/>
-      <c r="C39" s="8" t="n">
-        <v>47</v>
-      </c>
+      <c r="C39" s="8" t="n"/>
       <c r="D39" s="41" t="n"/>
-      <c r="E39" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E39" s="8" t="n"/>
       <c r="F39" s="8" t="n"/>
       <c r="G39" s="8" t="n"/>
       <c r="H39" s="24" t="n"/>
@@ -8360,14 +8394,14 @@
       <c r="K39" s="29" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="10" t="inlineStr">
-        <is>
-          <t>城南442望府景王园园</t>
+      <c r="A40" s="8" t="inlineStr">
+        <is>
+          <t>城南433优步潘为玮</t>
         </is>
       </c>
       <c r="B40" s="8" t="n"/>
       <c r="C40" s="8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D40" s="41" t="n"/>
       <c r="E40" s="8" t="n">
@@ -8383,7 +8417,7 @@
     <row r="41">
       <c r="A41" s="8" t="inlineStr">
         <is>
-          <t>城南430晶都悦府高胜</t>
+          <t>城南区804严靖凯</t>
         </is>
       </c>
       <c r="B41" s="8" t="n"/>
@@ -8392,7 +8426,7 @@
       </c>
       <c r="D41" s="41" t="n"/>
       <c r="E41" s="8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F41" s="8" t="n"/>
       <c r="G41" s="8" t="n"/>
@@ -8402,18 +8436,18 @@
       <c r="K41" s="29" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="8" t="inlineStr">
-        <is>
-          <t>城南436荣悦韦海祥</t>
+      <c r="A42" s="10" t="inlineStr">
+        <is>
+          <t>城南442望府景王园园</t>
         </is>
       </c>
       <c r="B42" s="8" t="n"/>
       <c r="C42" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="41" t="n"/>
       <c r="E42" s="8" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F42" s="8" t="n"/>
       <c r="G42" s="8" t="n"/>
@@ -8425,16 +8459,16 @@
     <row r="43">
       <c r="A43" s="8" t="inlineStr">
         <is>
-          <t>城南区副总顾勇</t>
+          <t>城南430晶都悦府高胜</t>
         </is>
       </c>
       <c r="B43" s="8" t="n"/>
       <c r="C43" s="8" t="n">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D43" s="41" t="n"/>
       <c r="E43" s="8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F43" s="8" t="n"/>
       <c r="G43" s="8" t="n"/>
@@ -8446,13 +8480,17 @@
     <row r="44">
       <c r="A44" s="8" t="inlineStr">
         <is>
-          <t>城南经理周强</t>
+          <t>城南436荣悦韦海祥</t>
         </is>
       </c>
       <c r="B44" s="8" t="n"/>
-      <c r="C44" s="8" t="n"/>
+      <c r="C44" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="D44" s="41" t="n"/>
-      <c r="E44" s="8" t="n"/>
+      <c r="E44" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="F44" s="8" t="n"/>
       <c r="G44" s="8" t="n"/>
       <c r="H44" s="24" t="n"/>
@@ -8463,16 +8501,16 @@
     <row r="45">
       <c r="A45" s="8" t="inlineStr">
         <is>
-          <t>城南华厦绿城405陈龙</t>
+          <t>城南区副总顾勇</t>
         </is>
       </c>
       <c r="B45" s="8" t="n"/>
       <c r="C45" s="8" t="n">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="D45" s="41" t="n"/>
       <c r="E45" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="8" t="n"/>
       <c r="G45" s="8" t="n"/>
@@ -8484,17 +8522,13 @@
     <row r="46">
       <c r="A46" s="8" t="inlineStr">
         <is>
-          <t>城南金色水405陈卫兰</t>
+          <t>城南经理周强</t>
         </is>
       </c>
       <c r="B46" s="8" t="n"/>
-      <c r="C46" s="8" t="n">
-        <v>48</v>
-      </c>
+      <c r="C46" s="8" t="n"/>
       <c r="D46" s="41" t="n"/>
-      <c r="E46" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="E46" s="8" t="n"/>
       <c r="F46" s="8" t="n"/>
       <c r="G46" s="8" t="n"/>
       <c r="H46" s="24" t="n"/>
@@ -8505,16 +8539,16 @@
     <row r="47">
       <c r="A47" s="8" t="inlineStr">
         <is>
-          <t>城南区观湖405王立霞</t>
+          <t>城南华厦绿城405陈龙</t>
         </is>
       </c>
       <c r="B47" s="8" t="n"/>
       <c r="C47" s="8" t="n">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D47" s="41" t="n"/>
       <c r="E47" s="8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F47" s="8" t="n"/>
       <c r="G47" s="8" t="n"/>
@@ -8526,13 +8560,17 @@
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
         <is>
-          <t>城南区6413代</t>
+          <t>城南金色水405陈卫兰</t>
         </is>
       </c>
       <c r="B48" s="8" t="n"/>
-      <c r="C48" s="8" t="n"/>
+      <c r="C48" s="8" t="n">
+        <v>35</v>
+      </c>
       <c r="D48" s="41" t="n"/>
-      <c r="E48" s="8" t="n"/>
+      <c r="E48" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="F48" s="8" t="n"/>
       <c r="G48" s="8" t="n"/>
       <c r="H48" s="24" t="n"/>
@@ -8543,13 +8581,17 @@
     <row r="49">
       <c r="A49" s="8" t="inlineStr">
         <is>
-          <t>城南区417宏都花园</t>
+          <t>城南区观湖405王立霞</t>
         </is>
       </c>
       <c r="B49" s="8" t="n"/>
-      <c r="C49" s="8" t="n"/>
+      <c r="C49" s="8" t="n">
+        <v>50</v>
+      </c>
       <c r="D49" s="41" t="n"/>
-      <c r="E49" s="8" t="n"/>
+      <c r="E49" s="8" t="n">
+        <v>5</v>
+      </c>
       <c r="F49" s="8" t="n"/>
       <c r="G49" s="8" t="n"/>
       <c r="H49" s="24" t="n"/>
@@ -8560,7 +8602,7 @@
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
         <is>
-          <t>城南区6411代</t>
+          <t>城南区6413代</t>
         </is>
       </c>
       <c r="B50" s="8" t="n"/>
@@ -8577,13 +8619,17 @@
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
         <is>
-          <t>城南区6409代</t>
+          <t>城南区417宏都花园</t>
         </is>
       </c>
       <c r="B51" s="8" t="n"/>
-      <c r="C51" s="8" t="n"/>
+      <c r="C51" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="D51" s="41" t="n"/>
-      <c r="E51" s="8" t="n"/>
+      <c r="E51" s="8" t="n">
+        <v>5</v>
+      </c>
       <c r="F51" s="8" t="n"/>
       <c r="G51" s="8" t="n"/>
       <c r="H51" s="24" t="n"/>
@@ -8594,17 +8640,13 @@
     <row r="52">
       <c r="A52" s="8" t="inlineStr">
         <is>
-          <t>城南431香苑黄加中</t>
+          <t>城南区6411代</t>
         </is>
       </c>
       <c r="B52" s="8" t="n"/>
-      <c r="C52" s="8" t="n">
-        <v>20</v>
-      </c>
+      <c r="C52" s="8" t="n"/>
       <c r="D52" s="41" t="n"/>
-      <c r="E52" s="8" t="n">
-        <v>3</v>
-      </c>
+      <c r="E52" s="8" t="n"/>
       <c r="F52" s="8" t="n"/>
       <c r="G52" s="8" t="n"/>
       <c r="H52" s="24" t="n"/>
@@ -8615,7 +8657,7 @@
     <row customFormat="1" customHeight="1" ht="17.6" r="53" s="33">
       <c r="A53" s="8" t="inlineStr">
         <is>
-          <t>城南区发往无下文</t>
+          <t>城南区6409代</t>
         </is>
       </c>
       <c r="B53" s="8" t="n"/>
@@ -8630,44 +8672,82 @@
       <c r="K53" s="29" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="12" t="inlineStr">
+      <c r="A54" s="8" t="inlineStr">
+        <is>
+          <t>城南431香苑黄加中</t>
+        </is>
+      </c>
+      <c r="B54" s="8" t="n"/>
+      <c r="C54" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" s="41" t="n"/>
+      <c r="E54" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="8" t="n"/>
+      <c r="G54" s="8" t="n"/>
+      <c r="H54" s="24" t="n"/>
+      <c r="I54" s="27" t="n"/>
+      <c r="J54" s="28" t="n"/>
+      <c r="K54" s="29" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="inlineStr">
+        <is>
+          <t>城南区发往无下文</t>
+        </is>
+      </c>
+      <c r="B55" s="8" t="n"/>
+      <c r="C55" s="8" t="n"/>
+      <c r="D55" s="41" t="n"/>
+      <c r="E55" s="8" t="n"/>
+      <c r="F55" s="8" t="n"/>
+      <c r="G55" s="8" t="n"/>
+      <c r="H55" s="24" t="n"/>
+      <c r="I55" s="27" t="n"/>
+      <c r="J55" s="28" t="n"/>
+      <c r="K55" s="29" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="12" t="inlineStr">
         <is>
           <t>大区合计</t>
         </is>
       </c>
-      <c r="B54" s="12" t="n"/>
-      <c r="C54" s="12" t="n">
-        <v>3774</v>
-      </c>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n">
-        <v>1183</v>
-      </c>
-      <c r="F54" s="12" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="12" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="30" t="n"/>
-      <c r="K54" s="31" t="n"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="14" t="inlineStr">
+      <c r="B56" s="12" t="n"/>
+      <c r="C56" s="12" t="n">
+        <v>1283</v>
+      </c>
+      <c r="D56" s="13" t="n"/>
+      <c r="E56" s="12" t="n">
+        <v>984</v>
+      </c>
+      <c r="F56" s="12" t="n"/>
+      <c r="G56" s="12" t="n"/>
+      <c r="H56" s="12" t="n"/>
+      <c r="I56" s="12" t="n"/>
+      <c r="J56" s="30" t="n"/>
+      <c r="K56" s="31" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="14" t="inlineStr">
         <is>
           <t>制表人：何红</t>
         </is>
       </c>
-      <c r="B55" s="15" t="inlineStr">
+      <c r="B57" s="15" t="inlineStr">
         <is>
           <t>电话：18921880822</t>
         </is>
       </c>
-      <c r="C55" s="15" t="n"/>
-      <c r="D55" s="15" t="n"/>
-      <c r="E55" s="15" t="n"/>
-      <c r="F55" s="15" t="n"/>
-      <c r="G55" s="15" t="n"/>
-      <c r="H55" s="15" t="n"/>
-      <c r="I55" s="15" t="n"/>
+      <c r="C57" s="15" t="n"/>
+      <c r="D57" s="15" t="n"/>
+      <c r="E57" s="15" t="n"/>
+      <c r="F57" s="15" t="n"/>
+      <c r="G57" s="15" t="n"/>
+      <c r="H57" s="15" t="n"/>
+      <c r="I57" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -8704,7 +8784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -8840,43 +8920,35 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>开发区滞留</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="n"/>
-      <c r="C7" s="8" t="n"/>
-      <c r="D7" s="41" t="n"/>
-      <c r="E7" s="8" t="n"/>
-      <c r="F7" s="8" t="n"/>
-      <c r="G7" s="8" t="n"/>
-      <c r="H7" s="24" t="n"/>
-      <c r="I7" s="27" t="n"/>
-      <c r="J7" s="28" t="n"/>
-      <c r="K7" s="29" t="n"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>开发区7614陈汉浩</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E7" t="n">
+        <v>398</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="inlineStr">
         <is>
-          <t>开发区6625柏业峰</t>
+          <t>开发区滞留</t>
         </is>
       </c>
       <c r="B8" s="8" t="n"/>
-      <c r="C8" s="8" t="n">
-        <v>226</v>
-      </c>
+      <c r="C8" s="8" t="n"/>
       <c r="D8" s="41" t="n"/>
-      <c r="E8" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E8" s="8" t="n"/>
       <c r="F8" s="8" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="H8" s="24" t="n"/>
@@ -8887,13 +8959,17 @@
     <row r="9">
       <c r="A9" s="8" t="inlineStr">
         <is>
-          <t>开发区6621王成</t>
+          <t>开发区6625柏业峰</t>
         </is>
       </c>
       <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n"/>
+      <c r="C9" s="8" t="n">
+        <v>56</v>
+      </c>
       <c r="D9" s="41" t="n"/>
-      <c r="E9" s="8" t="n"/>
+      <c r="E9" s="8" t="n">
+        <v>156</v>
+      </c>
       <c r="F9" s="8" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="H9" s="24" t="n"/>
@@ -8904,17 +8980,13 @@
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>开发区6619蔡玉宏</t>
+          <t>开发区6621王成</t>
         </is>
       </c>
       <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n">
-        <v>109</v>
-      </c>
+      <c r="C10" s="8" t="n"/>
       <c r="D10" s="41" t="n"/>
-      <c r="E10" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="E10" s="8" t="n"/>
       <c r="F10" s="8" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="H10" s="24" t="n"/>
@@ -8925,16 +8997,16 @@
     <row r="11">
       <c r="A11" s="8" t="inlineStr">
         <is>
-          <t>开发区7619中舍蔡玉宏</t>
+          <t>开发区6619蔡玉宏</t>
         </is>
       </c>
       <c r="B11" s="8" t="n"/>
       <c r="C11" s="8" t="n">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="D11" s="41" t="n"/>
       <c r="E11" s="8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F11" s="8" t="n"/>
       <c r="G11" s="8" t="n"/>
@@ -8946,16 +9018,16 @@
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
-          <t>开发师范新长校区913</t>
+          <t>开发区7619中舍蔡玉宏</t>
         </is>
       </c>
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n">
-        <v>336</v>
+        <v>145</v>
       </c>
       <c r="D12" s="41" t="n"/>
       <c r="E12" s="8" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="F12" s="8" t="n"/>
       <c r="G12" s="8" t="n"/>
@@ -8967,16 +9039,16 @@
     <row r="13">
       <c r="A13" s="8" t="inlineStr">
         <is>
-          <t>开发区ED1陈汉浩</t>
+          <t>开发师范新长校区913</t>
         </is>
       </c>
       <c r="B13" s="8" t="n"/>
       <c r="C13" s="8" t="n">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="D13" s="41" t="n"/>
       <c r="E13" s="8" t="n">
-        <v>1</v>
+        <v>299</v>
       </c>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
@@ -8988,17 +9060,13 @@
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
         <is>
-          <t>开发区6624陈剑红</t>
+          <t>开发区ED1陈汉浩</t>
         </is>
       </c>
       <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n">
-        <v>430</v>
-      </c>
+      <c r="C14" s="8" t="n"/>
       <c r="D14" s="41" t="n"/>
-      <c r="E14" s="8" t="n">
-        <v>43</v>
-      </c>
+      <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="H14" s="24" t="n"/>
@@ -9009,16 +9077,16 @@
     <row r="15">
       <c r="A15" s="8" t="inlineStr">
         <is>
-          <t>开发区8619蔡玉明</t>
+          <t>开发区6624陈剑红</t>
         </is>
       </c>
       <c r="B15" s="8" t="n"/>
       <c r="C15" s="8" t="n">
-        <v>237</v>
+        <v>51</v>
       </c>
       <c r="D15" s="41" t="n"/>
       <c r="E15" s="8" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F15" s="8" t="n"/>
       <c r="G15" s="8" t="n"/>
@@ -9028,36 +9096,40 @@
       <c r="K15" s="29" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="42" t="inlineStr">
-        <is>
-          <t>开发区7625康居柏业锋</t>
-        </is>
-      </c>
-      <c r="B16" s="52" t="n"/>
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>开发区8619蔡玉明</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="n"/>
       <c r="C16" s="8" t="n">
-        <v>154</v>
-      </c>
-      <c r="D16" s="53" t="n"/>
+        <v>38</v>
+      </c>
+      <c r="D16" s="41" t="n"/>
       <c r="E16" s="8" t="n">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="F16" s="8" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="H16" s="24" t="n"/>
       <c r="I16" s="27" t="n"/>
       <c r="J16" s="28" t="n"/>
-      <c r="K16" s="54" t="n"/>
+      <c r="K16" s="29" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="inlineStr">
-        <is>
-          <t>开发区驾驶员周永宏</t>
+      <c r="A17" s="42" t="inlineStr">
+        <is>
+          <t>开发区7625康居柏业锋</t>
         </is>
       </c>
       <c r="B17" s="52" t="n"/>
-      <c r="C17" s="8" t="n"/>
+      <c r="C17" s="8" t="n">
+        <v>50</v>
+      </c>
       <c r="D17" s="53" t="n"/>
-      <c r="E17" s="8" t="n"/>
+      <c r="E17" s="8" t="n">
+        <v>118</v>
+      </c>
       <c r="F17" s="8" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="H17" s="24" t="n"/>
@@ -9068,7 +9140,7 @@
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
         <is>
-          <t>开发区驾驶员庞元安</t>
+          <t>开发区驾驶员周永宏</t>
         </is>
       </c>
       <c r="B18" s="52" t="n"/>
@@ -9085,59 +9157,76 @@
     <row customFormat="1" customHeight="1" ht="17.6" r="19" s="33">
       <c r="A19" s="8" t="inlineStr">
         <is>
-          <t>开发区发往无下文</t>
-        </is>
-      </c>
-      <c r="B19" s="8" t="n"/>
+          <t>开发区驾驶员庞元安</t>
+        </is>
+      </c>
+      <c r="B19" s="52" t="n"/>
       <c r="C19" s="8" t="n"/>
-      <c r="D19" s="41" t="n"/>
+      <c r="D19" s="53" t="n"/>
       <c r="E19" s="8" t="n"/>
       <c r="F19" s="8" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="H19" s="24" t="n"/>
       <c r="I19" s="27" t="n"/>
       <c r="J19" s="28" t="n"/>
-      <c r="K19" s="29" t="n"/>
+      <c r="K19" s="54" t="n"/>
     </row>
     <row r="20" s="85">
-      <c r="A20" s="12" t="inlineStr">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>开发区发往无下文</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="n"/>
+      <c r="C20" s="8" t="n"/>
+      <c r="D20" s="41" t="n"/>
+      <c r="E20" s="8" t="n"/>
+      <c r="F20" s="8" t="n"/>
+      <c r="G20" s="8" t="n"/>
+      <c r="H20" s="24" t="n"/>
+      <c r="I20" s="27" t="n"/>
+      <c r="J20" s="28" t="n"/>
+      <c r="K20" s="29" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="12" t="inlineStr">
         <is>
           <t>大区合计</t>
         </is>
       </c>
-      <c r="B20" s="12" t="n"/>
-      <c r="C20" s="12" t="n">
-        <v>2212</v>
-      </c>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n">
-        <v>83</v>
-      </c>
-      <c r="F20" s="12" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="12" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="30" t="n"/>
-      <c r="K20" s="31" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="14" t="inlineStr">
+      <c r="B21" s="12" t="n"/>
+      <c r="C21" s="12" t="n">
+        <v>1072</v>
+      </c>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="12" t="n">
+        <v>1377</v>
+      </c>
+      <c r="F21" s="12" t="n"/>
+      <c r="G21" s="12" t="n"/>
+      <c r="H21" s="12" t="n"/>
+      <c r="I21" s="12" t="n"/>
+      <c r="J21" s="30" t="n"/>
+      <c r="K21" s="31" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="14" t="inlineStr">
         <is>
           <t>制表人：何红</t>
         </is>
       </c>
-      <c r="B21" s="15" t="inlineStr">
+      <c r="B22" s="15" t="inlineStr">
         <is>
           <t>电话：18921880822</t>
         </is>
       </c>
-      <c r="C21" s="15" t="n"/>
-      <c r="D21" s="15" t="n"/>
-      <c r="E21" s="15" t="n"/>
-      <c r="F21" s="15" t="n"/>
-      <c r="G21" s="15" t="n"/>
-      <c r="H21" s="15" t="n"/>
-      <c r="I21" s="15" t="n"/>
+      <c r="C22" s="15" t="n"/>
+      <c r="D22" s="15" t="n"/>
+      <c r="E22" s="15" t="n"/>
+      <c r="F22" s="15" t="n"/>
+      <c r="G22" s="15" t="n"/>
+      <c r="H22" s="15" t="n"/>
+      <c r="I22" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -9179,7 +9268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -9311,37 +9400,33 @@
     <row customFormat="1" r="6" s="59">
       <c r="A6" t="inlineStr">
         <is>
+          <t>五星区6611孙军</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>93</v>
+      </c>
+      <c r="E6" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" s="59">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>五星区7608李晶晶</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>124</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row customFormat="1" r="7" s="59">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>五星区滞留</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="n"/>
-      <c r="C7" s="8" t="n"/>
-      <c r="D7" s="41" t="n"/>
-      <c r="E7" s="8" t="n"/>
-      <c r="F7" s="8" t="n"/>
-      <c r="G7" s="8" t="n"/>
-      <c r="H7" s="24" t="n"/>
-      <c r="I7" s="27" t="n"/>
-      <c r="J7" s="28" t="n"/>
-      <c r="K7" s="29" t="n"/>
+      <c r="C7" t="n">
+        <v>86</v>
+      </c>
+      <c r="E7" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row customFormat="1" r="8" s="59">
       <c r="A8" s="8" t="inlineStr">
         <is>
-          <t>五星老师6912乔保龙</t>
+          <t>五星区滞留</t>
         </is>
       </c>
       <c r="B8" s="8" t="n"/>
@@ -9358,16 +9443,16 @@
     <row customFormat="1" r="9" s="59">
       <c r="A9" s="8" t="inlineStr">
         <is>
-          <t>五星区6111大洋徐海立</t>
+          <t>五星老师6912乔保龙</t>
         </is>
       </c>
       <c r="B9" s="8" t="n"/>
       <c r="C9" s="8" t="n">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="D9" s="41" t="n"/>
       <c r="E9" s="8" t="n">
-        <v>3</v>
+        <v>482</v>
       </c>
       <c r="F9" s="8" t="n"/>
       <c r="G9" s="8" t="n"/>
@@ -9379,16 +9464,16 @@
     <row customFormat="1" r="10" s="59">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>五星区6120农民还正粉</t>
+          <t>五星区6111大洋徐海立</t>
         </is>
       </c>
       <c r="B10" s="8" t="n"/>
       <c r="C10" s="8" t="n">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D10" s="41" t="n"/>
       <c r="E10" s="8" t="n">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="F10" s="8" t="n"/>
       <c r="G10" s="8" t="n"/>
@@ -9400,16 +9485,16 @@
     <row customFormat="1" r="11" s="59">
       <c r="A11" s="8" t="inlineStr">
         <is>
-          <t>五星区6612鑫业吕萍</t>
+          <t>五星区6120农民还正粉</t>
         </is>
       </c>
       <c r="B11" s="8" t="n"/>
       <c r="C11" s="8" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" s="41" t="n"/>
       <c r="E11" s="8" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F11" s="8" t="n"/>
       <c r="G11" s="8" t="n"/>
@@ -9421,13 +9506,17 @@
     <row customFormat="1" r="12" s="59">
       <c r="A12" s="8" t="inlineStr">
         <is>
-          <t>五星区6608金水郑金粉</t>
+          <t>五星区6612鑫业吕萍</t>
         </is>
       </c>
       <c r="B12" s="8" t="n"/>
-      <c r="C12" s="8" t="n"/>
+      <c r="C12" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="D12" s="41" t="n"/>
-      <c r="E12" s="8" t="n"/>
+      <c r="E12" s="8" t="n">
+        <v>105</v>
+      </c>
       <c r="F12" s="8" t="n"/>
       <c r="G12" s="8" t="n"/>
       <c r="H12" s="24" t="n"/>
@@ -9438,17 +9527,13 @@
     <row customFormat="1" customHeight="1" ht="13" r="13" s="59">
       <c r="A13" s="8" t="inlineStr">
         <is>
-          <t>五星区FL1孙军</t>
+          <t>五星区6608金水郑金粉</t>
         </is>
       </c>
       <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n">
-        <v>296</v>
-      </c>
+      <c r="C13" s="8" t="n"/>
       <c r="D13" s="41" t="n"/>
-      <c r="E13" s="8" t="n">
-        <v>222</v>
-      </c>
+      <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="H13" s="24" t="n"/>
@@ -9459,17 +9544,13 @@
     <row customFormat="1" r="14" s="59">
       <c r="A14" s="8" t="inlineStr">
         <is>
-          <t>五星区6605朱自江王浩</t>
+          <t>五星区FL1孙军</t>
         </is>
       </c>
       <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n">
-        <v>507</v>
-      </c>
+      <c r="C14" s="8" t="n"/>
       <c r="D14" s="41" t="n"/>
-      <c r="E14" s="8" t="n">
-        <v>6</v>
-      </c>
+      <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="H14" s="24" t="n"/>
@@ -9480,16 +9561,16 @@
     <row customFormat="1" r="15" s="59">
       <c r="A15" s="8" t="inlineStr">
         <is>
-          <t>五星区6606韦广豹</t>
+          <t>五星区6605朱自江王浩</t>
         </is>
       </c>
       <c r="B15" s="8" t="n"/>
       <c r="C15" s="8" t="n">
-        <v>238</v>
+        <v>93</v>
       </c>
       <c r="D15" s="41" t="n"/>
       <c r="E15" s="8" t="n">
-        <v>16</v>
+        <v>519</v>
       </c>
       <c r="F15" s="8" t="n"/>
       <c r="G15" s="8" t="n"/>
@@ -9501,16 +9582,16 @@
     <row customFormat="1" r="16" s="59">
       <c r="A16" s="8" t="inlineStr">
         <is>
-          <t>五星区6112滩涂陈彦军</t>
+          <t>五星区6606韦广豹</t>
         </is>
       </c>
       <c r="B16" s="8" t="n"/>
       <c r="C16" s="8" t="n">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="D16" s="41" t="n"/>
       <c r="E16" s="8" t="n">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="F16" s="8" t="n"/>
       <c r="G16" s="8" t="n"/>
@@ -9522,16 +9603,16 @@
     <row customFormat="1" r="17" s="59">
       <c r="A17" s="8" t="inlineStr">
         <is>
-          <t>五星区6603柏军</t>
+          <t>五星区6112滩涂陈彦军</t>
         </is>
       </c>
       <c r="B17" s="8" t="n"/>
       <c r="C17" s="8" t="n">
-        <v>318</v>
+        <v>58</v>
       </c>
       <c r="D17" s="41" t="n"/>
       <c r="E17" s="8" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="F17" s="8" t="n"/>
       <c r="G17" s="8" t="n"/>
@@ -9543,16 +9624,16 @@
     <row customFormat="1" r="18" s="59">
       <c r="A18" s="8" t="inlineStr">
         <is>
-          <t>五星区6127仇增龙</t>
+          <t>五星区6603柏军</t>
         </is>
       </c>
       <c r="B18" s="8" t="n"/>
       <c r="C18" s="8" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="D18" s="41" t="n"/>
       <c r="E18" s="8" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F18" s="8" t="n"/>
       <c r="G18" s="8" t="n"/>
@@ -9564,16 +9645,16 @@
     <row customFormat="1" r="19" s="59">
       <c r="A19" s="8" t="inlineStr">
         <is>
-          <t>五星区6604乔保龙</t>
+          <t>五星区6127仇增龙</t>
         </is>
       </c>
       <c r="B19" s="8" t="n"/>
       <c r="C19" s="8" t="n">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D19" s="41" t="n"/>
       <c r="E19" s="8" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="F19" s="8" t="n"/>
       <c r="G19" s="8" t="n"/>
@@ -9585,16 +9666,16 @@
     <row customFormat="1" r="20" s="59">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>五星区6121高力刘芳芳</t>
+          <t>五星区6604乔保龙</t>
         </is>
       </c>
       <c r="B20" s="8" t="n"/>
       <c r="C20" s="8" t="n">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="D20" s="41" t="n"/>
       <c r="E20" s="8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F20" s="8" t="n"/>
       <c r="G20" s="8" t="n"/>
@@ -9606,16 +9687,16 @@
     <row customFormat="1" r="21" s="59">
       <c r="A21" s="8" t="inlineStr">
         <is>
-          <t>五星区8112万泰徐维彤</t>
+          <t>五星区6121高力刘芳芳</t>
         </is>
       </c>
       <c r="B21" s="8" t="n"/>
       <c r="C21" s="8" t="n">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="D21" s="41" t="n"/>
       <c r="E21" s="8" t="n">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="F21" s="8" t="n"/>
       <c r="G21" s="8" t="n"/>
@@ -9627,16 +9708,16 @@
     <row customFormat="1" r="22" s="59">
       <c r="A22" s="8" t="inlineStr">
         <is>
-          <t>五星区6102北技师朱梅</t>
+          <t>五星区8112万泰徐维彤</t>
         </is>
       </c>
       <c r="B22" s="8" t="n"/>
       <c r="C22" s="8" t="n">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="D22" s="41" t="n"/>
       <c r="E22" s="8" t="n">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="F22" s="8" t="n"/>
       <c r="G22" s="8" t="n"/>
@@ -9648,13 +9729,17 @@
     <row customFormat="1" r="23" s="59">
       <c r="A23" s="8" t="inlineStr">
         <is>
-          <t>五星区5112嘉业袁洪祥</t>
+          <t>五星区6102北技师朱梅</t>
         </is>
       </c>
       <c r="B23" s="8" t="n"/>
-      <c r="C23" s="8" t="n"/>
+      <c r="C23" s="8" t="n">
+        <v>47</v>
+      </c>
       <c r="D23" s="41" t="n"/>
-      <c r="E23" s="8" t="n"/>
+      <c r="E23" s="8" t="n">
+        <v>150</v>
+      </c>
       <c r="F23" s="8" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="H23" s="24" t="n"/>
@@ -9665,7 +9750,7 @@
     <row customFormat="1" r="24" s="59">
       <c r="A24" s="8" t="inlineStr">
         <is>
-          <t>五星区7606代派</t>
+          <t>五星区5112嘉业袁洪祥</t>
         </is>
       </c>
       <c r="B24" s="8" t="n"/>
@@ -9682,7 +9767,7 @@
     <row customHeight="1" ht="17.6" r="25" s="85">
       <c r="A25" s="8" t="inlineStr">
         <is>
-          <t>五星区发往无下文</t>
+          <t>五星区7606代派</t>
         </is>
       </c>
       <c r="B25" s="8" t="n"/>
@@ -9697,51 +9782,68 @@
       <c r="K25" s="29" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="13.2" r="26" s="59">
-      <c r="A26" s="12" t="inlineStr">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>五星区发往无下文</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="n"/>
+      <c r="C26" s="8" t="n"/>
+      <c r="D26" s="41" t="n"/>
+      <c r="E26" s="8" t="n"/>
+      <c r="F26" s="8" t="n"/>
+      <c r="G26" s="8" t="n"/>
+      <c r="H26" s="24" t="n"/>
+      <c r="I26" s="27" t="n"/>
+      <c r="J26" s="28" t="n"/>
+      <c r="K26" s="29" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="12" t="inlineStr">
         <is>
           <t>大区合计</t>
         </is>
       </c>
-      <c r="B26" s="12" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="12" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="12" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="30" t="n"/>
-      <c r="K26" s="31" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="14" t="inlineStr">
+      <c r="B27" s="12" t="n"/>
+      <c r="C27" s="12" t="n"/>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="12" t="n"/>
+      <c r="F27" s="12" t="n"/>
+      <c r="G27" s="12" t="n"/>
+      <c r="H27" s="12" t="n"/>
+      <c r="I27" s="12" t="n"/>
+      <c r="J27" s="30" t="n"/>
+      <c r="K27" s="31" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="14" t="inlineStr">
         <is>
           <t>制表人：何红</t>
         </is>
       </c>
-      <c r="B27" s="15" t="inlineStr">
+      <c r="B28" s="15" t="inlineStr">
         <is>
           <t>电话：18921880822</t>
         </is>
       </c>
-      <c r="C27" s="15" t="n"/>
-      <c r="D27" s="14" t="n"/>
-      <c r="E27" s="14" t="n"/>
-      <c r="F27" s="14" t="n"/>
-      <c r="G27" s="14" t="n"/>
-      <c r="H27" s="14" t="n"/>
-      <c r="I27" s="38" t="n"/>
-    </row>
-    <row r="28">
-      <c r="C28" t="n">
-        <v>2820</v>
-      </c>
-      <c r="E28" t="n">
-        <v>289</v>
-      </c>
+      <c r="C28" s="15" t="n"/>
+      <c r="D28" s="14" t="n"/>
+      <c r="E28" s="14" t="n"/>
+      <c r="F28" s="14" t="n"/>
+      <c r="G28" s="14" t="n"/>
+      <c r="H28" s="14" t="n"/>
+      <c r="I28" s="38" t="n"/>
     </row>
     <row r="29">
-      <c r="D29" s="32">
+      <c r="C29" t="n">
+        <v>1502</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" s="32">
         <f>#REF!/#REF!</f>
         <v/>
       </c>
@@ -9781,7 +9883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -9913,47 +10015,39 @@
     <row customFormat="1" r="6" s="59">
       <c r="A6" t="inlineStr">
         <is>
+          <t>亭湖区6601高月城</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>150</v>
+      </c>
+      <c r="E6" t="n">
+        <v>575</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" s="59">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>亭湖区6630钮小锋</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>104</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" r="7" s="59">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>亭湖区滞留</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="n"/>
-      <c r="C7" s="8" t="n"/>
-      <c r="D7" s="41" t="n"/>
-      <c r="E7" s="8" t="n"/>
-      <c r="F7" s="8" t="n"/>
-      <c r="G7" s="8" t="n"/>
-      <c r="H7" s="24" t="n"/>
-      <c r="I7" s="27" t="n"/>
-      <c r="J7" s="28" t="n"/>
-      <c r="K7" s="29" t="n"/>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row customFormat="1" r="8" s="59">
       <c r="A8" s="8" t="inlineStr">
         <is>
-          <t>亭湖区7631邓明君</t>
+          <t>亭湖区滞留</t>
         </is>
       </c>
       <c r="B8" s="8" t="n"/>
-      <c r="C8" s="8" t="n">
-        <v>245</v>
-      </c>
+      <c r="C8" s="8" t="n"/>
       <c r="D8" s="41" t="n"/>
-      <c r="E8" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E8" s="8" t="n"/>
       <c r="F8" s="8" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="H8" s="24" t="n"/>
@@ -9964,16 +10058,16 @@
     <row customFormat="1" r="9" s="59">
       <c r="A9" s="8" t="inlineStr">
         <is>
-          <t>亭湖区6616陈钢</t>
+          <t>亭湖区7631邓明君</t>
         </is>
       </c>
       <c r="B9" s="8" t="n"/>
       <c r="C9" s="8" t="n">
-        <v>318</v>
+        <v>46</v>
       </c>
       <c r="D9" s="41" t="n"/>
       <c r="E9" s="8" t="n">
-        <v>223</v>
+        <v>344</v>
       </c>
       <c r="F9" s="8" t="n"/>
       <c r="G9" s="8" t="n"/>
@@ -9985,16 +10079,16 @@
     <row customFormat="1" r="10" s="59">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>亭湖区5620绿地冯金栋</t>
+          <t>亭湖区6616陈钢</t>
         </is>
       </c>
       <c r="B10" s="8" t="n"/>
       <c r="C10" s="8" t="n">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="D10" s="41" t="n"/>
       <c r="E10" s="8" t="n">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="F10" s="8" t="n"/>
       <c r="G10" s="8" t="n"/>
@@ -10002,19 +10096,21 @@
       <c r="I10" s="27" t="n"/>
       <c r="J10" s="28" t="n"/>
       <c r="K10" s="29" t="n"/>
-      <c r="L10" s="42" t="n"/>
-      <c r="M10" s="42" t="n"/>
     </row>
     <row customFormat="1" r="11" s="59">
-      <c r="A11" s="40" t="inlineStr">
-        <is>
-          <t>亭湖区6630江超</t>
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>亭湖区5620绿地冯金栋</t>
         </is>
       </c>
       <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
+      <c r="C11" s="8" t="n">
+        <v>111</v>
+      </c>
       <c r="D11" s="41" t="n"/>
-      <c r="E11" s="8" t="n"/>
+      <c r="E11" s="8" t="n">
+        <v>66</v>
+      </c>
       <c r="F11" s="8" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="H11" s="24" t="n"/>
@@ -10027,17 +10123,13 @@
     <row customFormat="1" r="12" s="59">
       <c r="A12" s="40" t="inlineStr">
         <is>
-          <t>亭湖黄尖0001蔡呈祥</t>
+          <t>亭湖区6630江超</t>
         </is>
       </c>
       <c r="B12" s="8" t="n"/>
-      <c r="C12" s="8" t="n">
-        <v>298</v>
-      </c>
+      <c r="C12" s="8" t="n"/>
       <c r="D12" s="41" t="n"/>
-      <c r="E12" s="8" t="n">
-        <v>39</v>
-      </c>
+      <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
       <c r="G12" s="8" t="n"/>
       <c r="H12" s="24" t="n"/>
@@ -10050,16 +10142,16 @@
     <row customFormat="1" customHeight="1" ht="13" r="13" s="59">
       <c r="A13" s="40" t="inlineStr">
         <is>
-          <t>亭湖区6627戚思祥</t>
+          <t>亭湖黄尖0001蔡呈祥</t>
         </is>
       </c>
       <c r="B13" s="8" t="n"/>
       <c r="C13" s="8" t="n">
-        <v>730</v>
+        <v>37</v>
       </c>
       <c r="D13" s="41" t="n"/>
       <c r="E13" s="8" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
@@ -10073,16 +10165,16 @@
     <row customFormat="1" r="14" s="59">
       <c r="A14" s="40" t="inlineStr">
         <is>
-          <t>亭湖区8631王杰</t>
+          <t>亭湖区6627戚思祥</t>
         </is>
       </c>
       <c r="B14" s="8" t="n"/>
       <c r="C14" s="8" t="n">
-        <v>88</v>
+        <v>444</v>
       </c>
       <c r="D14" s="41" t="n"/>
       <c r="E14" s="8" t="n">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="F14" s="8" t="n"/>
       <c r="G14" s="8" t="n"/>
@@ -10090,16 +10182,18 @@
       <c r="I14" s="27" t="n"/>
       <c r="J14" s="28" t="n"/>
       <c r="K14" s="29" t="n"/>
+      <c r="L14" s="42" t="n"/>
+      <c r="M14" s="42" t="n"/>
     </row>
     <row customFormat="1" r="15" s="59">
       <c r="A15" s="40" t="inlineStr">
         <is>
-          <t>亭湖区6628吴德春</t>
+          <t>亭湖区8631王杰</t>
         </is>
       </c>
       <c r="B15" s="8" t="n"/>
       <c r="C15" s="8" t="n">
-        <v>366</v>
+        <v>14</v>
       </c>
       <c r="D15" s="41" t="n"/>
       <c r="E15" s="8" t="n">
@@ -10115,16 +10209,16 @@
     <row customFormat="1" r="16" s="59">
       <c r="A16" s="40" t="inlineStr">
         <is>
-          <t>亭湖东工9904东施东升</t>
+          <t>亭湖区6628吴德春</t>
         </is>
       </c>
       <c r="B16" s="8" t="n"/>
       <c r="C16" s="8" t="n">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="D16" s="41" t="n"/>
       <c r="E16" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="8" t="n"/>
       <c r="G16" s="8" t="n"/>
@@ -10136,16 +10230,16 @@
     <row customFormat="1" r="17" s="59">
       <c r="A17" s="40" t="inlineStr">
         <is>
-          <t>亭湖区DA1高月城</t>
+          <t>亭湖东工9904东施东升</t>
         </is>
       </c>
       <c r="B17" s="8" t="n"/>
       <c r="C17" s="8" t="n">
-        <v>650</v>
+        <v>287</v>
       </c>
       <c r="D17" s="41" t="n"/>
       <c r="E17" s="8" t="n">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="F17" s="8" t="n"/>
       <c r="G17" s="8" t="n"/>
@@ -10157,17 +10251,13 @@
     <row customFormat="1" r="18" s="59">
       <c r="A18" s="40" t="inlineStr">
         <is>
-          <t>亭湖盐东8707蔡呈祥</t>
+          <t>亭湖区DA1高月城</t>
         </is>
       </c>
       <c r="B18" s="8" t="n"/>
-      <c r="C18" s="8" t="n">
-        <v>255</v>
-      </c>
+      <c r="C18" s="8" t="n"/>
       <c r="D18" s="41" t="n"/>
-      <c r="E18" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="E18" s="8" t="n"/>
       <c r="F18" s="8" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="H18" s="24" t="n"/>
@@ -10178,16 +10268,16 @@
     <row customFormat="1" r="19" s="59">
       <c r="A19" s="40" t="inlineStr">
         <is>
-          <t>亭湖工学院希望校905</t>
+          <t>亭湖盐东8707蔡呈祥</t>
         </is>
       </c>
       <c r="B19" s="8" t="n"/>
       <c r="C19" s="8" t="n">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="D19" s="41" t="n"/>
       <c r="E19" s="8" t="n">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="F19" s="8" t="n"/>
       <c r="G19" s="8" t="n"/>
@@ -10199,16 +10289,16 @@
     <row customFormat="1" r="20" s="59">
       <c r="A20" s="40" t="inlineStr">
         <is>
-          <t>亭湖区6629沈炳军</t>
+          <t>亭湖工学院希望校905</t>
         </is>
       </c>
       <c r="B20" s="8" t="n"/>
       <c r="C20" s="8" t="n">
-        <v>715</v>
+        <v>450</v>
       </c>
       <c r="D20" s="41" t="n"/>
       <c r="E20" s="8" t="n">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="F20" s="8" t="n"/>
       <c r="G20" s="8" t="n"/>
@@ -10220,16 +10310,16 @@
     <row customFormat="1" r="21" s="59">
       <c r="A21" s="40" t="inlineStr">
         <is>
-          <t>亭湖区7630黄建业</t>
+          <t>亭湖区6629沈炳军</t>
         </is>
       </c>
       <c r="B21" s="8" t="n"/>
       <c r="C21" s="8" t="n">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="D21" s="41" t="n"/>
       <c r="E21" s="8" t="n">
-        <v>1</v>
+        <v>359</v>
       </c>
       <c r="F21" s="8" t="n"/>
       <c r="G21" s="8" t="n"/>
@@ -10241,16 +10331,16 @@
     <row customFormat="1" r="22" s="59">
       <c r="A22" s="40" t="inlineStr">
         <is>
-          <t>亭湖庆丰4707蔡呈祥</t>
+          <t>亭湖区7630黄建业</t>
         </is>
       </c>
       <c r="B22" s="8" t="n"/>
       <c r="C22" s="8" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D22" s="41" t="n"/>
       <c r="E22" s="8" t="n">
-        <v>35</v>
+        <v>443</v>
       </c>
       <c r="F22" s="8" t="n"/>
       <c r="G22" s="8" t="n"/>
@@ -10262,13 +10352,17 @@
     <row customFormat="1" r="23" s="59">
       <c r="A23" s="40" t="inlineStr">
         <is>
-          <t>亭湖区631绿地璟庭</t>
+          <t>亭湖庆丰4707蔡呈祥</t>
         </is>
       </c>
       <c r="B23" s="8" t="n"/>
-      <c r="C23" s="8" t="n"/>
+      <c r="C23" s="8" t="n">
+        <v>17</v>
+      </c>
       <c r="D23" s="41" t="n"/>
-      <c r="E23" s="8" t="n"/>
+      <c r="E23" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="F23" s="8" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="H23" s="24" t="n"/>
@@ -10279,7 +10373,7 @@
     <row customFormat="1" r="24" s="59">
       <c r="A24" s="40" t="inlineStr">
         <is>
-          <t>亭湖黄尖7707蔡呈祥</t>
+          <t>亭湖区631绿地璟庭</t>
         </is>
       </c>
       <c r="B24" s="8" t="n"/>
@@ -10296,7 +10390,7 @@
     <row customFormat="1" r="25" s="59">
       <c r="A25" s="40" t="inlineStr">
         <is>
-          <t>亭湖南三3707蔡呈祥</t>
+          <t>亭湖黄尖7707蔡呈祥</t>
         </is>
       </c>
       <c r="B25" s="8" t="n"/>
@@ -10313,7 +10407,7 @@
     <row customFormat="1" r="26" s="59">
       <c r="A26" s="40" t="inlineStr">
         <is>
-          <t>亭湖区630红琴商店</t>
+          <t>亭湖南三3707蔡呈祥</t>
         </is>
       </c>
       <c r="B26" s="8" t="n"/>
@@ -10330,7 +10424,7 @@
     <row customFormat="1" r="27" s="59">
       <c r="A27" s="40" t="inlineStr">
         <is>
-          <t>亭湖区7627裹裹</t>
+          <t>亭湖区630红琴商店</t>
         </is>
       </c>
       <c r="B27" s="8" t="n"/>
@@ -10347,7 +10441,7 @@
     <row customFormat="1" r="28" s="59">
       <c r="A28" s="40" t="inlineStr">
         <is>
-          <t>亭湖区5630生物李春林</t>
+          <t>亭湖区7627裹裹</t>
         </is>
       </c>
       <c r="B28" s="8" t="n"/>
@@ -10364,7 +10458,7 @@
     <row customHeight="1" ht="17.6" r="29" s="85">
       <c r="A29" s="40" t="inlineStr">
         <is>
-          <t>亭湖区发往无下文</t>
+          <t>亭湖区5630生物李春林</t>
         </is>
       </c>
       <c r="B29" s="8" t="n"/>
@@ -10379,44 +10473,61 @@
       <c r="K29" s="29" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="13.2" r="30" s="59">
-      <c r="A30" s="12" t="inlineStr">
+      <c r="A30" s="40" t="inlineStr">
+        <is>
+          <t>亭湖区发往无下文</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="n"/>
+      <c r="C30" s="8" t="n"/>
+      <c r="D30" s="41" t="n"/>
+      <c r="E30" s="8" t="n"/>
+      <c r="F30" s="8" t="n"/>
+      <c r="G30" s="8" t="n"/>
+      <c r="H30" s="24" t="n"/>
+      <c r="I30" s="27" t="n"/>
+      <c r="J30" s="28" t="n"/>
+      <c r="K30" s="29" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="12" t="inlineStr">
         <is>
           <t>大区合计</t>
         </is>
       </c>
-      <c r="B30" s="12" t="n"/>
-      <c r="C30" s="12" t="n">
-        <v>4977</v>
-      </c>
-      <c r="D30" s="13" t="n"/>
-      <c r="E30" s="12" t="n">
-        <v>560</v>
-      </c>
-      <c r="F30" s="12" t="n"/>
-      <c r="G30" s="12" t="n"/>
-      <c r="H30" s="12" t="n"/>
-      <c r="I30" s="12" t="n"/>
-      <c r="J30" s="30" t="n"/>
-      <c r="K30" s="31" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="14" t="inlineStr">
+      <c r="B31" s="12" t="n"/>
+      <c r="C31" s="12" t="n">
+        <v>2507</v>
+      </c>
+      <c r="D31" s="13" t="n"/>
+      <c r="E31" s="12" t="n">
+        <v>2918</v>
+      </c>
+      <c r="F31" s="12" t="n"/>
+      <c r="G31" s="12" t="n"/>
+      <c r="H31" s="12" t="n"/>
+      <c r="I31" s="12" t="n"/>
+      <c r="J31" s="30" t="n"/>
+      <c r="K31" s="31" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="14" t="inlineStr">
         <is>
           <t>制表人：何红</t>
         </is>
       </c>
-      <c r="B31" s="15" t="inlineStr">
+      <c r="B32" s="15" t="inlineStr">
         <is>
           <t>电话：18921880822</t>
         </is>
       </c>
-      <c r="C31" s="15" t="n"/>
-      <c r="D31" s="14" t="n"/>
-      <c r="E31" s="14" t="n"/>
-      <c r="F31" s="14" t="n"/>
-      <c r="G31" s="14" t="n"/>
-      <c r="H31" s="14" t="n"/>
-      <c r="I31" s="38" t="n"/>
+      <c r="C32" s="15" t="n"/>
+      <c r="D32" s="14" t="n"/>
+      <c r="E32" s="14" t="n"/>
+      <c r="F32" s="14" t="n"/>
+      <c r="G32" s="14" t="n"/>
+      <c r="H32" s="14" t="n"/>
+      <c r="I32" s="38" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -10453,7 +10564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -10583,26 +10694,22 @@
       <c r="K5" s="89" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="14.4" r="6" s="59">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>吾悦区滞留</t>
-        </is>
-      </c>
-      <c r="B6" s="8" t="n"/>
-      <c r="C6" s="8" t="n"/>
-      <c r="D6" s="41" t="n"/>
-      <c r="E6" s="8" t="n"/>
-      <c r="F6" s="8" t="n"/>
-      <c r="G6" s="8" t="n"/>
-      <c r="H6" s="24" t="n"/>
-      <c r="I6" s="27" t="n"/>
-      <c r="J6" s="28" t="n"/>
-      <c r="K6" s="29" t="n"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>吾悦区6510徐海林</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>44</v>
+      </c>
+      <c r="E6" t="n">
+        <v>358</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="14.4" r="7" s="59">
       <c r="A7" s="8" t="inlineStr">
         <is>
-          <t>吾悦区驾驶员孙海楼</t>
+          <t>吾悦区滞留</t>
         </is>
       </c>
       <c r="B7" s="8" t="n"/>
@@ -10619,16 +10726,16 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="8" s="59">
       <c r="A8" s="8" t="inlineStr">
         <is>
-          <t>吾悦区500潘丹</t>
+          <t>吾悦区驾驶员孙海楼</t>
         </is>
       </c>
       <c r="B8" s="8" t="n"/>
       <c r="C8" s="8" t="n">
-        <v>246</v>
+        <v>13</v>
       </c>
       <c r="D8" s="41" t="n"/>
       <c r="E8" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="8" t="n"/>
       <c r="G8" s="8" t="n"/>
@@ -10638,18 +10745,18 @@
       <c r="K8" s="29" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="14.4" r="9" s="59">
-      <c r="A9" s="46" t="inlineStr">
-        <is>
-          <t>吾悦区506谷诗雨</t>
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>吾悦区500潘丹</t>
         </is>
       </c>
       <c r="B9" s="8" t="n"/>
       <c r="C9" s="8" t="n">
-        <v>406</v>
+        <v>36</v>
       </c>
       <c r="D9" s="41" t="n"/>
       <c r="E9" s="8" t="n">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="F9" s="8" t="n"/>
       <c r="G9" s="8" t="n"/>
@@ -10661,16 +10768,16 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="10" s="59">
       <c r="A10" s="46" t="inlineStr">
         <is>
-          <t>吾悦区BN1徐海林</t>
+          <t>吾悦区506谷诗雨</t>
         </is>
       </c>
       <c r="B10" s="8" t="n"/>
       <c r="C10" s="8" t="n">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="D10" s="41" t="n"/>
       <c r="E10" s="8" t="n">
-        <v>118</v>
+        <v>325</v>
       </c>
       <c r="F10" s="8" t="n"/>
       <c r="G10" s="8" t="n"/>
@@ -10682,39 +10789,33 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="11" s="59">
       <c r="A11" s="46" t="inlineStr">
         <is>
-          <t>吾悦区559马沟孙海燕</t>
+          <t>吾悦区BN1徐海林</t>
         </is>
       </c>
       <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n">
-        <v>27</v>
-      </c>
+      <c r="C11" s="8" t="n"/>
       <c r="D11" s="41" t="n"/>
-      <c r="E11" s="8" t="n">
-        <v>182</v>
-      </c>
+      <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="H11" s="24" t="n"/>
       <c r="I11" s="27" t="n"/>
       <c r="J11" s="28" t="n"/>
       <c r="K11" s="29" t="n"/>
-      <c r="L11" s="42" t="n"/>
-      <c r="M11" s="42" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="14.4" r="12" s="59">
-      <c r="A12" s="8" t="inlineStr">
-        <is>
-          <t>吾悦区6519东升张益俊</t>
+      <c r="A12" s="46" t="inlineStr">
+        <is>
+          <t>吾悦区559马沟孙海燕</t>
         </is>
       </c>
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="D12" s="41" t="n"/>
       <c r="E12" s="8" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F12" s="8" t="n"/>
       <c r="G12" s="8" t="n"/>
@@ -10726,18 +10827,18 @@
       <c r="M12" s="42" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="14.4" r="13" s="59">
-      <c r="A13" s="46" t="inlineStr">
-        <is>
-          <t>吾悦区6509蔡金灯</t>
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>吾悦区6519东升张益俊</t>
         </is>
       </c>
       <c r="B13" s="8" t="n"/>
       <c r="C13" s="8" t="n">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="D13" s="41" t="n"/>
       <c r="E13" s="8" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
@@ -10751,16 +10852,16 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="14" s="59">
       <c r="A14" s="46" t="inlineStr">
         <is>
-          <t>吾悦区6505潘养峰</t>
+          <t>吾悦区6509蔡金灯</t>
         </is>
       </c>
       <c r="B14" s="8" t="n"/>
       <c r="C14" s="8" t="n">
-        <v>641</v>
+        <v>41</v>
       </c>
       <c r="D14" s="41" t="n"/>
       <c r="E14" s="8" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F14" s="8" t="n"/>
       <c r="G14" s="8" t="n"/>
@@ -10772,18 +10873,18 @@
       <c r="M14" s="42" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="14.4" r="15" s="59">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>吾悦区501朱亚军</t>
+      <c r="A15" s="46" t="inlineStr">
+        <is>
+          <t>吾悦区6505潘养峰</t>
         </is>
       </c>
       <c r="B15" s="8" t="n"/>
       <c r="C15" s="8" t="n">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="D15" s="41" t="n"/>
       <c r="E15" s="8" t="n">
-        <v>41</v>
+        <v>562</v>
       </c>
       <c r="F15" s="8" t="n"/>
       <c r="G15" s="8" t="n"/>
@@ -10797,16 +10898,16 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="16" s="59">
       <c r="A16" s="8" t="inlineStr">
         <is>
-          <t>吾悦公司驾驶员唐文俊</t>
+          <t>吾悦区501朱亚军</t>
         </is>
       </c>
       <c r="B16" s="8" t="n"/>
       <c r="C16" s="8" t="n">
-        <v>571</v>
+        <v>30</v>
       </c>
       <c r="D16" s="41" t="n"/>
       <c r="E16" s="8" t="n">
-        <v>11</v>
+        <v>267</v>
       </c>
       <c r="F16" s="8" t="n"/>
       <c r="G16" s="8" t="n"/>
@@ -10820,16 +10921,16 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="17" s="59">
       <c r="A17" s="8" t="inlineStr">
         <is>
-          <t>吾悦区502黄辉</t>
+          <t>吾悦公司驾驶员唐文俊</t>
         </is>
       </c>
       <c r="B17" s="8" t="n"/>
       <c r="C17" s="8" t="n">
-        <v>362</v>
+        <v>74</v>
       </c>
       <c r="D17" s="41" t="n"/>
       <c r="E17" s="8" t="n">
-        <v>30</v>
+        <v>547</v>
       </c>
       <c r="F17" s="8" t="n"/>
       <c r="G17" s="8" t="n"/>
@@ -10841,18 +10942,18 @@
       <c r="M17" s="42" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="14.4" r="18" s="59">
-      <c r="A18" s="46" t="inlineStr">
-        <is>
-          <t>吾悦区6503恒大陈明</t>
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>吾悦区502黄辉</t>
         </is>
       </c>
       <c r="B18" s="8" t="n"/>
       <c r="C18" s="8" t="n">
-        <v>472</v>
+        <v>27</v>
       </c>
       <c r="D18" s="41" t="n"/>
       <c r="E18" s="8" t="n">
-        <v>7</v>
+        <v>359</v>
       </c>
       <c r="F18" s="8" t="n"/>
       <c r="G18" s="8" t="n"/>
@@ -10866,16 +10967,16 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="19" s="59">
       <c r="A19" s="46" t="inlineStr">
         <is>
-          <t>吾悦区5524东河陈燕</t>
+          <t>吾悦区6503恒大陈明</t>
         </is>
       </c>
       <c r="B19" s="8" t="n"/>
       <c r="C19" s="8" t="n">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D19" s="41" t="n"/>
       <c r="E19" s="8" t="n">
-        <v>103</v>
+        <v>383</v>
       </c>
       <c r="F19" s="8" t="n"/>
       <c r="G19" s="8" t="n"/>
@@ -10889,16 +10990,16 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="20" s="59">
       <c r="A20" s="46" t="inlineStr">
         <is>
-          <t>吾悦区5510逸景陈中凌</t>
+          <t>吾悦区5524东河陈燕</t>
         </is>
       </c>
       <c r="B20" s="8" t="n"/>
       <c r="C20" s="8" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D20" s="41" t="n"/>
       <c r="E20" s="8" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F20" s="8" t="n"/>
       <c r="G20" s="8" t="n"/>
@@ -10912,16 +11013,16 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="21" s="59">
       <c r="A21" s="46" t="inlineStr">
         <is>
-          <t>吾悦区6504天澜陈明</t>
+          <t>吾悦区5510逸景陈中凌</t>
         </is>
       </c>
       <c r="B21" s="8" t="n"/>
       <c r="C21" s="8" t="n">
-        <v>269</v>
+        <v>5</v>
       </c>
       <c r="D21" s="41" t="n"/>
       <c r="E21" s="8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F21" s="8" t="n"/>
       <c r="G21" s="8" t="n"/>
@@ -10935,16 +11036,16 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="22" s="59">
       <c r="A22" s="46" t="inlineStr">
         <is>
-          <t>吾悦区驾驶员包才旺</t>
+          <t>吾悦区6504天澜陈明</t>
         </is>
       </c>
       <c r="B22" s="8" t="n"/>
       <c r="C22" s="8" t="n">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="D22" s="41" t="n"/>
       <c r="E22" s="8" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="F22" s="8" t="n"/>
       <c r="G22" s="8" t="n"/>
@@ -10958,16 +11059,16 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="23" s="59">
       <c r="A23" s="46" t="inlineStr">
         <is>
-          <t>吾悦区6507王超</t>
+          <t>吾悦区驾驶员包才旺</t>
         </is>
       </c>
       <c r="B23" s="8" t="n"/>
       <c r="C23" s="8" t="n">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="D23" s="41" t="n"/>
       <c r="E23" s="8" t="n">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="F23" s="8" t="n"/>
       <c r="G23" s="8" t="n"/>
@@ -10979,15 +11080,19 @@
       <c r="M23" s="42" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="14.4" r="24" s="59">
-      <c r="A24" s="8" t="inlineStr">
-        <is>
-          <t>吾悦区7509马沟高国成</t>
+      <c r="A24" s="46" t="inlineStr">
+        <is>
+          <t>吾悦区6507王超</t>
         </is>
       </c>
       <c r="B24" s="8" t="n"/>
-      <c r="C24" s="8" t="n"/>
+      <c r="C24" s="8" t="n">
+        <v>40</v>
+      </c>
       <c r="D24" s="41" t="n"/>
-      <c r="E24" s="8" t="n"/>
+      <c r="E24" s="8" t="n">
+        <v>201</v>
+      </c>
       <c r="F24" s="8" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="H24" s="24" t="n"/>
@@ -11000,7 +11105,7 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="25" s="59">
       <c r="A25" s="8" t="inlineStr">
         <is>
-          <t>吾悦区500兴城家园</t>
+          <t>吾悦区7509马沟高国成</t>
         </is>
       </c>
       <c r="B25" s="8" t="n"/>
@@ -11017,9 +11122,9 @@
       <c r="M25" s="42" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="14.4" r="26" s="59">
-      <c r="A26" s="46" t="inlineStr">
-        <is>
-          <t>吾悦区502兴都公寓</t>
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>吾悦区500兴城家园</t>
         </is>
       </c>
       <c r="B26" s="8" t="n"/>
@@ -11036,9 +11141,9 @@
       <c r="M26" s="42" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="14.4" r="27" s="59">
-      <c r="A27" s="8" t="inlineStr">
-        <is>
-          <t>吾悦区502碧桂园7期</t>
+      <c r="A27" s="46" t="inlineStr">
+        <is>
+          <t>吾悦区502兴都公寓</t>
         </is>
       </c>
       <c r="B27" s="8" t="n"/>
@@ -11057,7 +11162,7 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="28" s="59">
       <c r="A28" s="8" t="inlineStr">
         <is>
-          <t>吾悦区502碧桂园凤凰</t>
+          <t>吾悦区502碧桂园7期</t>
         </is>
       </c>
       <c r="B28" s="8" t="n"/>
@@ -11076,7 +11181,7 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="29" s="59">
       <c r="A29" s="8" t="inlineStr">
         <is>
-          <t>吾悦区502华侨世纪华</t>
+          <t>吾悦区502碧桂园凤凰</t>
         </is>
       </c>
       <c r="B29" s="8" t="n"/>
@@ -11095,7 +11200,7 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="30" s="59">
       <c r="A30" s="8" t="inlineStr">
         <is>
-          <t>吾悦区502神州河刘凯</t>
+          <t>吾悦区502华侨世纪华</t>
         </is>
       </c>
       <c r="B30" s="8" t="n"/>
@@ -11114,7 +11219,7 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="31" s="59">
       <c r="A31" s="8" t="inlineStr">
         <is>
-          <t>吾悦区502司风前</t>
+          <t>吾悦区502神州河刘凯</t>
         </is>
       </c>
       <c r="B31" s="8" t="n"/>
@@ -11131,9 +11236,9 @@
       <c r="M31" s="42" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="14.4" r="32" s="59">
-      <c r="A32" s="46" t="inlineStr">
-        <is>
-          <t>吾悦区502吾悦广场</t>
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>吾悦区502司风前</t>
         </is>
       </c>
       <c r="B32" s="8" t="n"/>
@@ -11152,7 +11257,7 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="33" s="59">
       <c r="A33" s="46" t="inlineStr">
         <is>
-          <t>吾悦区505香槟殷日成</t>
+          <t>吾悦区502吾悦广场</t>
         </is>
       </c>
       <c r="B33" s="8" t="n"/>
@@ -11171,7 +11276,7 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="34" s="59">
       <c r="A34" s="46" t="inlineStr">
         <is>
-          <t>吾悦区505碧桂园2期</t>
+          <t>吾悦区505香槟殷日成</t>
         </is>
       </c>
       <c r="B34" s="8" t="n"/>
@@ -11190,7 +11295,7 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="35" s="59">
       <c r="A35" s="46" t="inlineStr">
         <is>
-          <t>吾悦区5509高翠英</t>
+          <t>吾悦区505碧桂园2期</t>
         </is>
       </c>
       <c r="B35" s="8" t="n"/>
@@ -11209,7 +11314,7 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="36" s="59">
       <c r="A36" s="46" t="inlineStr">
         <is>
-          <t>吾悦区505翰林刘爱军</t>
+          <t>吾悦区5509高翠英</t>
         </is>
       </c>
       <c r="B36" s="8" t="n"/>
@@ -11228,7 +11333,7 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="37" s="59">
       <c r="A37" s="46" t="inlineStr">
         <is>
-          <t>吾悦区505瞰都苏宁小</t>
+          <t>吾悦区505翰林刘爱军</t>
         </is>
       </c>
       <c r="B37" s="8" t="n"/>
@@ -11247,7 +11352,7 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="38" s="59">
       <c r="A38" s="46" t="inlineStr">
         <is>
-          <t>吾悦区505神州豪苑</t>
+          <t>吾悦区505瞰都苏宁小</t>
         </is>
       </c>
       <c r="B38" s="8" t="n"/>
@@ -11266,7 +11371,7 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="39" s="59">
       <c r="A39" s="46" t="inlineStr">
         <is>
-          <t>吾悦区5508</t>
+          <t>吾悦区505神州豪苑</t>
         </is>
       </c>
       <c r="B39" s="8" t="n"/>
@@ -11285,7 +11390,7 @@
     <row customFormat="1" customHeight="1" ht="14.4" r="40" s="59">
       <c r="A40" s="46" t="inlineStr">
         <is>
-          <t>吾悦区505港龙华侨城</t>
+          <t>吾悦区5508</t>
         </is>
       </c>
       <c r="B40" s="8" t="n"/>
@@ -11302,9 +11407,9 @@
       <c r="M40" s="42" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="14.4" r="41" s="59">
-      <c r="A41" s="8" t="inlineStr">
-        <is>
-          <t>吾悦区500依云香嵇磊</t>
+      <c r="A41" s="46" t="inlineStr">
+        <is>
+          <t>吾悦区505港龙华侨城</t>
         </is>
       </c>
       <c r="B41" s="8" t="n"/>
@@ -11321,9 +11426,9 @@
       <c r="M41" s="42" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="14.4" r="42" s="59">
-      <c r="A42" s="46" t="inlineStr">
-        <is>
-          <t>吾悦区505碧桂园3期</t>
+      <c r="A42" s="8" t="inlineStr">
+        <is>
+          <t>吾悦区500依云香嵇磊</t>
         </is>
       </c>
       <c r="B42" s="8" t="n"/>
@@ -11336,11 +11441,13 @@
       <c r="I42" s="27" t="n"/>
       <c r="J42" s="28" t="n"/>
       <c r="K42" s="29" t="n"/>
+      <c r="L42" s="42" t="n"/>
+      <c r="M42" s="42" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="14.4" r="43" s="59">
-      <c r="A43" s="8" t="inlineStr">
-        <is>
-          <t>吾悦区经理张顺明</t>
+      <c r="A43" s="46" t="inlineStr">
+        <is>
+          <t>吾悦区505碧桂园3期</t>
         </is>
       </c>
       <c r="B43" s="8" t="n"/>
@@ -11355,9 +11462,9 @@
       <c r="K43" s="29" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="15.2" r="44" s="45">
-      <c r="A44" s="46" t="inlineStr">
-        <is>
-          <t>吾悦区6505潘强</t>
+      <c r="A44" s="8" t="inlineStr">
+        <is>
+          <t>吾悦区经理张顺明</t>
         </is>
       </c>
       <c r="B44" s="8" t="n"/>
@@ -11372,9 +11479,9 @@
       <c r="K44" s="29" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="14.4" r="45" s="59">
-      <c r="A45" s="8" t="inlineStr">
-        <is>
-          <t>吾悦区发往无下文</t>
+      <c r="A45" s="46" t="inlineStr">
+        <is>
+          <t>吾悦区6505潘强</t>
         </is>
       </c>
       <c r="B45" s="8" t="n"/>
@@ -11389,9 +11496,9 @@
       <c r="K45" s="29" t="n"/>
     </row>
     <row customFormat="1" r="46" s="59">
-      <c r="A46" s="10" t="inlineStr">
-        <is>
-          <t>吾悦区6504天澜陈明</t>
+      <c r="A46" s="8" t="inlineStr">
+        <is>
+          <t>吾悦区发往无下文</t>
         </is>
       </c>
       <c r="B46" s="8" t="n"/>
@@ -11399,51 +11506,68 @@
       <c r="D46" s="41" t="n"/>
       <c r="E46" s="8" t="n"/>
       <c r="F46" s="8" t="n"/>
-      <c r="G46" s="47" t="n"/>
-      <c r="H46" s="48" t="n"/>
-      <c r="I46" s="48" t="n"/>
-      <c r="J46" s="49" t="n"/>
-      <c r="K46" s="50" t="n"/>
+      <c r="G46" s="8" t="n"/>
+      <c r="H46" s="24" t="n"/>
+      <c r="I46" s="27" t="n"/>
+      <c r="J46" s="28" t="n"/>
+      <c r="K46" s="29" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="17.6" r="47" s="33">
-      <c r="A47" s="12" t="inlineStr">
+      <c r="A47" s="10" t="inlineStr">
+        <is>
+          <t>吾悦区6504天澜陈明</t>
+        </is>
+      </c>
+      <c r="B47" s="8" t="n"/>
+      <c r="C47" s="8" t="n"/>
+      <c r="D47" s="41" t="n"/>
+      <c r="E47" s="8" t="n"/>
+      <c r="F47" s="8" t="n"/>
+      <c r="G47" s="47" t="n"/>
+      <c r="H47" s="48" t="n"/>
+      <c r="I47" s="48" t="n"/>
+      <c r="J47" s="49" t="n"/>
+      <c r="K47" s="50" t="n"/>
+    </row>
+    <row r="48" s="85">
+      <c r="A48" s="12" t="inlineStr">
         <is>
           <t>大区合计</t>
         </is>
       </c>
-      <c r="B47" s="12" t="n"/>
-      <c r="C47" s="12" t="n">
-        <v>4354</v>
-      </c>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n">
-        <v>572</v>
-      </c>
-      <c r="F47" s="12" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="12" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="30" t="n"/>
-      <c r="K47" s="31" t="n"/>
-    </row>
-    <row r="48" s="85">
-      <c r="A48" s="14" t="inlineStr">
+      <c r="B48" s="12" t="n"/>
+      <c r="C48" s="12" t="n">
+        <v>695</v>
+      </c>
+      <c r="D48" s="13" t="n"/>
+      <c r="E48" s="12" t="n">
+        <v>3508</v>
+      </c>
+      <c r="F48" s="12" t="n"/>
+      <c r="G48" s="12" t="n"/>
+      <c r="H48" s="12" t="n"/>
+      <c r="I48" s="12" t="n"/>
+      <c r="J48" s="30" t="n"/>
+      <c r="K48" s="31" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="14" t="inlineStr">
         <is>
           <t>制表人：何红</t>
         </is>
       </c>
-      <c r="B48" s="15" t="inlineStr">
+      <c r="B49" s="15" t="inlineStr">
         <is>
           <t>电话：18921880822</t>
         </is>
       </c>
-      <c r="C48" s="15" t="n"/>
-      <c r="D48" s="15" t="n"/>
-      <c r="E48" s="15" t="n"/>
-      <c r="F48" s="15" t="n"/>
-      <c r="G48" s="15" t="n"/>
-      <c r="H48" s="15" t="n"/>
-      <c r="I48" s="15" t="n"/>
+      <c r="C49" s="15" t="n"/>
+      <c r="D49" s="15" t="n"/>
+      <c r="E49" s="15" t="n"/>
+      <c r="F49" s="15" t="n"/>
+      <c r="G49" s="15" t="n"/>
+      <c r="H49" s="15" t="n"/>
+      <c r="I49" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -11625,11 +11749,11 @@
       </c>
       <c r="B6" s="8" t="n"/>
       <c r="C6" s="8" t="n">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="D6" s="41" t="n"/>
       <c r="E6" s="8" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="F6" s="8" t="n"/>
       <c r="G6" s="8" t="n"/>
@@ -11646,11 +11770,11 @@
       </c>
       <c r="B7" s="8" t="n"/>
       <c r="C7" s="8" t="n">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="D7" s="41" t="n"/>
       <c r="E7" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="8" t="n"/>
       <c r="G7" s="8" t="n"/>
@@ -11667,11 +11791,11 @@
       </c>
       <c r="B8" s="8" t="n"/>
       <c r="C8" s="8" t="n">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="D8" s="41" t="n"/>
       <c r="E8" s="8" t="n">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="F8" s="8" t="n"/>
       <c r="G8" s="8" t="n"/>
@@ -11688,11 +11812,11 @@
       </c>
       <c r="B9" s="8" t="n"/>
       <c r="C9" s="8" t="n">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="D9" s="41" t="n"/>
       <c r="E9" s="8" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F9" s="8" t="n"/>
       <c r="G9" s="8" t="n"/>
@@ -11709,11 +11833,11 @@
       </c>
       <c r="B10" s="8" t="n"/>
       <c r="C10" s="8" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D10" s="41" t="n"/>
       <c r="E10" s="8" t="n">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="F10" s="8" t="n"/>
       <c r="G10" s="8" t="n"/>
@@ -11730,11 +11854,11 @@
       </c>
       <c r="B11" s="8" t="n"/>
       <c r="C11" s="8" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D11" s="41" t="n"/>
       <c r="E11" s="8" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F11" s="8" t="n"/>
       <c r="G11" s="8" t="n"/>
@@ -11751,11 +11875,11 @@
       </c>
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="D12" s="41" t="n"/>
       <c r="E12" s="8" t="n">
-        <v>792</v>
+        <v>1</v>
       </c>
       <c r="F12" s="8" t="n"/>
       <c r="G12" s="8" t="n"/>
@@ -11772,11 +11896,11 @@
       </c>
       <c r="B13" s="8" t="n"/>
       <c r="C13" s="8" t="n">
-        <v>238</v>
+        <v>28</v>
       </c>
       <c r="D13" s="41" t="n"/>
       <c r="E13" s="8" t="n">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
@@ -11793,11 +11917,11 @@
       </c>
       <c r="B14" s="8" t="n"/>
       <c r="C14" s="8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" s="41" t="n"/>
       <c r="E14" s="8" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F14" s="8" t="n"/>
       <c r="G14" s="8" t="n"/>
@@ -11814,11 +11938,11 @@
       </c>
       <c r="B15" s="8" t="n"/>
       <c r="C15" s="8" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D15" s="41" t="n"/>
       <c r="E15" s="8" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F15" s="8" t="n"/>
       <c r="G15" s="8" t="n"/>
@@ -11835,11 +11959,11 @@
       </c>
       <c r="B16" s="8" t="n"/>
       <c r="C16" s="8" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D16" s="41" t="n"/>
       <c r="E16" s="8" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="F16" s="8" t="n"/>
       <c r="G16" s="8" t="n"/>
@@ -11856,11 +11980,11 @@
       </c>
       <c r="B17" s="8" t="n"/>
       <c r="C17" s="8" t="n">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="D17" s="41" t="n"/>
       <c r="E17" s="8" t="n">
-        <v>191</v>
+        <v>309</v>
       </c>
       <c r="F17" s="8" t="n"/>
       <c r="G17" s="8" t="n"/>
@@ -11877,11 +12001,11 @@
       </c>
       <c r="B18" s="8" t="n"/>
       <c r="C18" s="8" t="n">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="D18" s="41" t="n"/>
       <c r="E18" s="8" t="n">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="F18" s="8" t="n"/>
       <c r="G18" s="8" t="n"/>
@@ -11898,11 +12022,11 @@
       </c>
       <c r="B19" s="8" t="n"/>
       <c r="C19" s="8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D19" s="41" t="n"/>
       <c r="E19" s="8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F19" s="8" t="n"/>
       <c r="G19" s="8" t="n"/>
@@ -11952,9 +12076,13 @@
         </is>
       </c>
       <c r="B22" s="8" t="n"/>
-      <c r="C22" s="8" t="n"/>
+      <c r="C22" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="D22" s="41" t="n"/>
-      <c r="E22" s="8" t="n"/>
+      <c r="E22" s="8" t="n">
+        <v>22</v>
+      </c>
       <c r="F22" s="8" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="H22" s="24" t="n"/>
@@ -12037,9 +12165,13 @@
         </is>
       </c>
       <c r="B27" s="8" t="n"/>
-      <c r="C27" s="8" t="n"/>
+      <c r="C27" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="D27" s="41" t="n"/>
-      <c r="E27" s="8" t="n"/>
+      <c r="E27" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="F27" s="8" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="H27" s="24" t="n"/>
@@ -12054,9 +12186,13 @@
         </is>
       </c>
       <c r="B28" s="8" t="n"/>
-      <c r="C28" s="8" t="n"/>
+      <c r="C28" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="D28" s="41" t="n"/>
-      <c r="E28" s="8" t="n"/>
+      <c r="E28" s="8" t="n">
+        <v>48</v>
+      </c>
       <c r="F28" s="8" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="H28" s="24" t="n"/>
@@ -12088,9 +12224,13 @@
         </is>
       </c>
       <c r="B30" s="8" t="n"/>
-      <c r="C30" s="8" t="n"/>
+      <c r="C30" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="D30" s="41" t="n"/>
-      <c r="E30" s="8" t="n"/>
+      <c r="E30" s="8" t="n">
+        <v>132</v>
+      </c>
       <c r="F30" s="8" t="n"/>
       <c r="G30" s="8" t="n"/>
       <c r="H30" s="24" t="n"/>
@@ -12140,11 +12280,11 @@
       </c>
       <c r="B33" s="12" t="n"/>
       <c r="C33" s="12" t="n">
-        <v>1626</v>
+        <v>670</v>
       </c>
       <c r="D33" s="13" t="n"/>
       <c r="E33" s="12" t="n">
-        <v>2148</v>
+        <v>1492</v>
       </c>
       <c r="F33" s="12" t="n"/>
       <c r="G33" s="12" t="n"/>
